--- a/data/RawData/ObsData/2009-2022/2018/04-09-2018.xlsx
+++ b/data/RawData/ObsData/2009-2022/2018/04-09-2018.xlsx
@@ -5,18 +5,21 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aponchon\Nextcloud\Aurore Ponchon\Projects\Golden Lion Tamarins Brazil\Analysis\GoldenLionTamarins\data\RawData\Groups\2018\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aponchon\Nextcloud\Aurore Ponchon\Projects\Golden Lion Tamarins Brazil\Analysis\GoldenLionTamarins\data\RawData\ObsData\2009-2022\2018\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDA721F4-0E85-417C-976E-4E853E0A07DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1734D4AB-0478-4819-9343-65964C576EC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="675" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
     <sheet name="Plan2" sheetId="2" r:id="rId2"/>
     <sheet name="Plan3" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Plan1!$A$1:$Q$146</definedName>
+  </definedNames>
   <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
@@ -27,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1035" uniqueCount="376">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1035" uniqueCount="375">
   <si>
     <t>Grupos Equipe Meta 04-set-2018</t>
   </si>
@@ -165,9 +168,6 @@
   </si>
   <si>
     <t>T14-BE</t>
-  </si>
-  <si>
-    <t>9/14</t>
   </si>
   <si>
     <t>T3-CE</t>
@@ -1832,7 +1832,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="113">
+  <cellXfs count="114">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2152,6 +2152,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2502,10 +2505,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:Q146"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A58" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J69" sqref="J69"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="P147" sqref="P147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2553,7 +2557,7 @@
       <c r="P1" s="3"/>
       <c r="Q1" s="4"/>
     </row>
-    <row r="2" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" ht="12" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
@@ -2572,7 +2576,7 @@
       <c r="P2" s="7"/>
       <c r="Q2" s="8"/>
     </row>
-    <row r="3" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" ht="12" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>2</v>
       </c>
@@ -2595,7 +2599,7 @@
       <c r="P3" s="13"/>
       <c r="Q3" s="16"/>
     </row>
-    <row r="4" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" ht="12" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="17" t="s">
         <v>3</v>
       </c>
@@ -2646,7 +2650,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="21" t="s">
         <v>11</v>
       </c>
@@ -2695,7 +2699,7 @@
       </c>
       <c r="Q5" s="26"/>
     </row>
-    <row r="6" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="27" t="s">
         <v>20</v>
       </c>
@@ -2744,7 +2748,7 @@
         <v>4407</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="27" t="s">
         <v>24</v>
       </c>
@@ -2791,7 +2795,7 @@
       </c>
       <c r="Q7" s="32"/>
     </row>
-    <row r="8" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="27" t="s">
         <v>31</v>
       </c>
@@ -2838,7 +2842,7 @@
       </c>
       <c r="Q8" s="32"/>
     </row>
-    <row r="9" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" ht="12" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="27" t="s">
         <v>16</v>
       </c>
@@ -2883,7 +2887,7 @@
       </c>
       <c r="Q9" s="35"/>
     </row>
-    <row r="10" spans="1:17" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" ht="12" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="27" t="s">
         <v>16</v>
       </c>
@@ -2916,7 +2920,7 @@
       <c r="P10" s="38"/>
       <c r="Q10" s="39"/>
     </row>
-    <row r="11" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="27" t="s">
         <v>16</v>
       </c>
@@ -2971,7 +2975,7 @@
         <v>1386</v>
       </c>
       <c r="C12" s="28" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D12" s="28">
         <v>1386</v>
@@ -3005,14 +3009,14 @@
       <c r="O12" s="109" t="s">
         <v>14</v>
       </c>
-      <c r="P12" s="109" t="s">
-        <v>46</v>
+      <c r="P12" s="113" t="s">
+        <v>292</v>
       </c>
       <c r="Q12" s="110">
         <v>4604</v>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="27" t="s">
         <v>20</v>
       </c>
@@ -3026,18 +3030,18 @@
         <v>43</v>
       </c>
       <c r="G13" s="41" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H13" s="29"/>
       <c r="I13" s="20"/>
       <c r="J13" s="62" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K13" s="59">
         <v>1389</v>
       </c>
       <c r="L13" s="59" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M13" s="59">
         <v>1389</v>
@@ -3049,13 +3053,13 @@
         <v>14</v>
       </c>
       <c r="P13" s="59" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q13" s="61" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:17" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17" ht="12" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="42" t="s">
         <v>16</v>
       </c>
@@ -3069,7 +3073,7 @@
         <v>43</v>
       </c>
       <c r="G14" s="43" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H14" s="44"/>
       <c r="I14" s="20"/>
@@ -3092,13 +3096,13 @@
         <v>43</v>
       </c>
       <c r="P14" s="43" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q14" s="44" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:17" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17" ht="12" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="48"/>
       <c r="B15" s="49"/>
       <c r="C15" s="49"/>
@@ -3117,15 +3121,15 @@
       <c r="P15" s="46"/>
       <c r="Q15" s="47"/>
     </row>
-    <row r="16" spans="1:17" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17" ht="12" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="53" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B16" s="22">
         <v>1303</v>
       </c>
       <c r="C16" s="22" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D16" s="22">
         <v>1303</v>
@@ -3150,7 +3154,7 @@
       <c r="P16" s="49"/>
       <c r="Q16" s="52"/>
     </row>
-    <row r="17" spans="1:17" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17" ht="12" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="27" t="s">
         <v>16</v>
       </c>
@@ -3158,7 +3162,7 @@
         <v>1360</v>
       </c>
       <c r="C17" s="28" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D17" s="28">
         <v>1360</v>
@@ -3170,14 +3174,14 @@
         <v>14</v>
       </c>
       <c r="G17" s="28" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H17" s="32">
         <v>4955</v>
       </c>
       <c r="I17" s="36"/>
       <c r="J17" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K17" s="11"/>
       <c r="L17" s="55"/>
@@ -3187,7 +3191,7 @@
       <c r="P17" s="10"/>
       <c r="Q17" s="11"/>
     </row>
-    <row r="18" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="27" t="s">
         <v>16</v>
       </c>
@@ -3195,10 +3199,10 @@
         <v>1355</v>
       </c>
       <c r="C18" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="D18" s="28" t="s">
         <v>62</v>
-      </c>
-      <c r="D18" s="28" t="s">
-        <v>63</v>
       </c>
       <c r="E18" s="28" t="s">
         <v>13</v>
@@ -3212,16 +3216,16 @@
       <c r="H18" s="57"/>
       <c r="I18" s="20"/>
       <c r="J18" s="53" t="s">
+        <v>56</v>
+      </c>
+      <c r="K18" s="56" t="s">
         <v>57</v>
       </c>
-      <c r="K18" s="56" t="s">
+      <c r="L18" s="56" t="s">
         <v>58</v>
       </c>
-      <c r="L18" s="56" t="s">
+      <c r="M18" s="56" t="s">
         <v>59</v>
-      </c>
-      <c r="M18" s="56" t="s">
-        <v>60</v>
       </c>
       <c r="N18" s="56" t="s">
         <v>13</v>
@@ -3230,13 +3234,13 @@
         <v>14</v>
       </c>
       <c r="P18" s="56" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Q18" s="54">
         <v>4909</v>
       </c>
     </row>
-    <row r="19" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="27" t="s">
         <v>16</v>
       </c>
@@ -3244,7 +3248,7 @@
         <v>1375</v>
       </c>
       <c r="C19" s="28" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D19" s="28">
         <v>1375</v>
@@ -3256,19 +3260,19 @@
         <v>26</v>
       </c>
       <c r="G19" s="28" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H19" s="61"/>
       <c r="I19" s="20"/>
       <c r="J19" s="58"/>
       <c r="K19" s="59" t="s">
+        <v>63</v>
+      </c>
+      <c r="L19" s="59" t="s">
         <v>64</v>
       </c>
-      <c r="L19" s="59" t="s">
-        <v>65</v>
-      </c>
       <c r="M19" s="59" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="N19" s="59" t="s">
         <v>13</v>
@@ -3277,11 +3281,11 @@
         <v>14</v>
       </c>
       <c r="P19" s="59" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="Q19" s="60"/>
     </row>
-    <row r="20" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="27" t="s">
         <v>16</v>
       </c>
@@ -3301,13 +3305,13 @@
         <v>43</v>
       </c>
       <c r="G20" s="28" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H20" s="61"/>
       <c r="I20" s="20"/>
       <c r="J20" s="62"/>
       <c r="K20" s="59" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L20" s="59" t="s">
         <v>1</v>
@@ -3324,7 +3328,7 @@
       <c r="P20" s="59"/>
       <c r="Q20" s="61"/>
     </row>
-    <row r="21" spans="1:17" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:17" ht="12" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="27" t="s">
         <v>16</v>
       </c>
@@ -3338,13 +3342,13 @@
         <v>43</v>
       </c>
       <c r="G21" s="28" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H21" s="61"/>
       <c r="I21" s="20"/>
       <c r="J21" s="63"/>
       <c r="K21" s="64" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L21" s="65"/>
       <c r="M21" s="65"/>
@@ -3355,7 +3359,7 @@
       <c r="P21" s="65"/>
       <c r="Q21" s="66"/>
     </row>
-    <row r="22" spans="1:17" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:17" ht="12" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="42"/>
       <c r="B22" s="43"/>
       <c r="C22" s="43"/>
@@ -3388,7 +3392,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="111"/>
       <c r="B23" s="112"/>
       <c r="C23" s="112"/>
@@ -3407,7 +3411,7 @@
       <c r="P23" s="31"/>
       <c r="Q23" s="31"/>
     </row>
-    <row r="24" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="62"/>
       <c r="B24" s="59"/>
       <c r="C24" s="59"/>
@@ -3426,7 +3430,7 @@
       <c r="P24" s="31"/>
       <c r="Q24" s="31"/>
     </row>
-    <row r="25" spans="1:17" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:17" ht="12" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="70" t="s">
         <v>1</v>
       </c>
@@ -3446,9 +3450,9 @@
       <c r="P25" s="105"/>
       <c r="Q25" s="106"/>
     </row>
-    <row r="26" spans="1:17" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:17" ht="12" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="73" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B26" s="18"/>
       <c r="C26" s="19"/>
@@ -3459,16 +3463,16 @@
       <c r="H26" s="13"/>
       <c r="I26" s="20"/>
       <c r="J26" s="102" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K26" s="56" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L26" s="56" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M26" s="56" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="N26" s="56" t="s">
         <v>19</v>
@@ -3477,22 +3481,22 @@
         <v>14</v>
       </c>
       <c r="P26" s="56" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Q26" s="54"/>
     </row>
-    <row r="27" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="53" t="s">
+        <v>75</v>
+      </c>
+      <c r="B27" s="56" t="s">
         <v>76</v>
       </c>
-      <c r="B27" s="56" t="s">
-        <v>77</v>
-      </c>
       <c r="C27" s="56" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D27" s="56" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E27" s="56" t="s">
         <v>13</v>
@@ -3501,21 +3505,21 @@
         <v>14</v>
       </c>
       <c r="G27" s="56" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H27" s="54"/>
       <c r="I27" s="20"/>
       <c r="J27" s="53" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K27" s="59" t="s">
+        <v>73</v>
+      </c>
+      <c r="L27" s="59" t="s">
         <v>74</v>
       </c>
-      <c r="L27" s="59" t="s">
-        <v>75</v>
-      </c>
       <c r="M27" s="59" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="N27" s="59" t="s">
         <v>19</v>
@@ -3524,22 +3528,22 @@
         <v>14</v>
       </c>
       <c r="P27" s="59" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Q27" s="61"/>
     </row>
-    <row r="28" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="62" t="s">
         <v>1</v>
       </c>
       <c r="B28" s="59" t="s">
+        <v>80</v>
+      </c>
+      <c r="C28" s="59" t="s">
         <v>81</v>
       </c>
-      <c r="C28" s="59" t="s">
+      <c r="D28" s="59" t="s">
         <v>82</v>
-      </c>
-      <c r="D28" s="59" t="s">
-        <v>83</v>
       </c>
       <c r="E28" s="59" t="s">
         <v>19</v>
@@ -3548,19 +3552,19 @@
         <v>14</v>
       </c>
       <c r="G28" s="59" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H28" s="61"/>
       <c r="I28" s="20"/>
       <c r="J28" s="62"/>
       <c r="K28" s="59" t="s">
+        <v>78</v>
+      </c>
+      <c r="L28" s="59" t="s">
         <v>79</v>
       </c>
-      <c r="L28" s="59" t="s">
-        <v>80</v>
-      </c>
       <c r="M28" s="59" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="N28" s="59" t="s">
         <v>13</v>
@@ -3569,22 +3573,22 @@
         <v>14</v>
       </c>
       <c r="P28" s="59" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Q28" s="61"/>
     </row>
-    <row r="29" spans="1:17" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:17" ht="12" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="62" t="s">
+        <v>87</v>
+      </c>
+      <c r="B29" s="59" t="s">
         <v>88</v>
       </c>
-      <c r="B29" s="59" t="s">
+      <c r="C29" s="59" t="s">
         <v>89</v>
       </c>
-      <c r="C29" s="59" t="s">
-        <v>90</v>
-      </c>
       <c r="D29" s="59" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E29" s="59" t="s">
         <v>19</v>
@@ -3593,7 +3597,7 @@
         <v>26</v>
       </c>
       <c r="G29" s="59" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H29" s="61">
         <v>4283</v>
@@ -3601,13 +3605,13 @@
       <c r="I29" s="20"/>
       <c r="J29" s="70"/>
       <c r="K29" s="71" t="s">
+        <v>84</v>
+      </c>
+      <c r="L29" s="71" t="s">
         <v>85</v>
       </c>
-      <c r="L29" s="71" t="s">
-        <v>86</v>
-      </c>
       <c r="M29" s="71" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N29" s="71" t="s">
         <v>13</v>
@@ -3616,16 +3620,16 @@
         <v>14</v>
       </c>
       <c r="P29" s="71" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="Q29" s="72">
         <v>4045</v>
       </c>
     </row>
-    <row r="30" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="74"/>
       <c r="B30" s="75" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C30" s="75"/>
       <c r="D30" s="75"/>
@@ -3634,10 +3638,10 @@
         <v>37</v>
       </c>
       <c r="G30" s="75" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H30" s="76" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I30" s="20"/>
       <c r="J30" s="40"/>
@@ -3649,10 +3653,10 @@
       <c r="P30" s="40"/>
       <c r="Q30" s="40"/>
     </row>
-    <row r="31" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="62"/>
       <c r="B31" s="59" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C31" s="59"/>
       <c r="D31" s="59"/>
@@ -3661,7 +3665,7 @@
         <v>37</v>
       </c>
       <c r="G31" s="59" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H31" s="61"/>
       <c r="I31" s="20"/>
@@ -3674,10 +3678,10 @@
       <c r="P31" s="40"/>
       <c r="Q31" s="40"/>
     </row>
-    <row r="32" spans="1:17" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:17" ht="12" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="48"/>
       <c r="B32" s="49" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C32" s="49"/>
       <c r="D32" s="49"/>
@@ -3686,7 +3690,7 @@
         <v>43</v>
       </c>
       <c r="G32" s="49" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H32" s="49"/>
       <c r="I32" s="20"/>
@@ -3699,10 +3703,10 @@
       <c r="P32" s="40"/>
       <c r="Q32" s="40"/>
     </row>
-    <row r="33" spans="1:17" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:17" ht="12" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="48"/>
       <c r="B33" s="49" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C33" s="49"/>
       <c r="D33" s="49"/>
@@ -3711,21 +3715,21 @@
         <v>43</v>
       </c>
       <c r="G33" s="49" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H33" s="49"/>
       <c r="I33" s="20"/>
       <c r="J33" s="77" t="s">
+        <v>93</v>
+      </c>
+      <c r="K33" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="K33" s="18" t="s">
+      <c r="L33" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="L33" s="18" t="s">
-        <v>96</v>
-      </c>
       <c r="M33" s="18" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="N33" s="18" t="s">
         <v>19</v>
@@ -3734,24 +3738,24 @@
         <v>14</v>
       </c>
       <c r="P33" s="18" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Q33" s="19">
         <v>4822</v>
       </c>
     </row>
-    <row r="34" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:17" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="53" t="s">
+        <v>104</v>
+      </c>
+      <c r="B34" s="56" t="s">
         <v>105</v>
       </c>
-      <c r="B34" s="56" t="s">
-        <v>106</v>
-      </c>
       <c r="C34" s="56" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D34" s="56" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E34" s="56" t="s">
         <v>13</v>
@@ -3760,7 +3764,7 @@
         <v>14</v>
       </c>
       <c r="G34" s="56" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H34" s="54" t="s">
         <v>1</v>
@@ -3775,16 +3779,16 @@
       <c r="P34" s="49"/>
       <c r="Q34" s="52"/>
     </row>
-    <row r="35" spans="1:17" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:17" ht="12" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="62"/>
       <c r="B35" s="59" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C35" s="59" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D35" s="59" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E35" s="59" t="s">
         <v>19</v>
@@ -3793,23 +3797,23 @@
         <v>14</v>
       </c>
       <c r="G35" s="59" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H35" s="61">
         <v>4756</v>
       </c>
       <c r="I35" s="20"/>
       <c r="J35" s="63" t="s">
+        <v>99</v>
+      </c>
+      <c r="K35" s="71" t="s">
         <v>100</v>
       </c>
-      <c r="K35" s="71" t="s">
+      <c r="L35" s="71" t="s">
+        <v>61</v>
+      </c>
+      <c r="M35" s="71" t="s">
         <v>101</v>
-      </c>
-      <c r="L35" s="71" t="s">
-        <v>62</v>
-      </c>
-      <c r="M35" s="71" t="s">
-        <v>102</v>
       </c>
       <c r="N35" s="71" t="s">
         <v>19</v>
@@ -3818,20 +3822,20 @@
         <v>14</v>
       </c>
       <c r="P35" s="71" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="Q35" s="72"/>
     </row>
-    <row r="36" spans="1:17" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:17" ht="12" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="62"/>
       <c r="B36" s="59" t="s">
+        <v>110</v>
+      </c>
+      <c r="C36" s="59" t="s">
         <v>111</v>
       </c>
-      <c r="C36" s="59" t="s">
-        <v>112</v>
-      </c>
       <c r="D36" s="59" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E36" s="59" t="s">
         <v>13</v>
@@ -3840,7 +3844,7 @@
         <v>14</v>
       </c>
       <c r="G36" s="59" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H36" s="32" t="s">
         <v>1</v>
@@ -3855,18 +3859,18 @@
       <c r="P36" s="71"/>
       <c r="Q36" s="72"/>
     </row>
-    <row r="37" spans="1:17" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:17" ht="12" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="62" t="s">
         <v>1</v>
       </c>
       <c r="B37" s="59" t="s">
+        <v>115</v>
+      </c>
+      <c r="C37" s="59" t="s">
         <v>116</v>
       </c>
-      <c r="C37" s="59" t="s">
-        <v>117</v>
-      </c>
       <c r="D37" s="59" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E37" s="59" t="s">
         <v>19</v>
@@ -3888,16 +3892,16 @@
       <c r="P37" s="49"/>
       <c r="Q37" s="52"/>
     </row>
-    <row r="38" spans="1:17" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:17" ht="12" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A38" s="62"/>
       <c r="B38" s="59" t="s">
+        <v>122</v>
+      </c>
+      <c r="C38" s="59" t="s">
         <v>123</v>
       </c>
-      <c r="C38" s="59" t="s">
-        <v>124</v>
-      </c>
       <c r="D38" s="59" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E38" s="59" t="s">
         <v>13</v>
@@ -3906,12 +3910,12 @@
         <v>37</v>
       </c>
       <c r="G38" s="59" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H38" s="61"/>
       <c r="I38" s="20"/>
       <c r="J38" s="9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K38" s="10"/>
       <c r="L38" s="11"/>
@@ -3921,16 +3925,16 @@
       <c r="P38" s="13"/>
       <c r="Q38" s="16"/>
     </row>
-    <row r="39" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:17" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="62"/>
       <c r="B39" s="59" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C39" s="59" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D39" s="59" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E39" s="59" t="s">
         <v>13</v>
@@ -3944,16 +3948,16 @@
       <c r="H39" s="61"/>
       <c r="I39" s="20"/>
       <c r="J39" s="53" t="s">
+        <v>113</v>
+      </c>
+      <c r="K39" s="25" t="s">
         <v>114</v>
       </c>
-      <c r="K39" s="25" t="s">
-        <v>115</v>
-      </c>
       <c r="L39" s="25" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M39" s="25" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="N39" s="25" t="s">
         <v>13</v>
@@ -3962,22 +3966,22 @@
         <v>26</v>
       </c>
       <c r="P39" s="25" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q39" s="26">
         <v>4995</v>
       </c>
     </row>
-    <row r="40" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:17" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="62"/>
       <c r="B40" s="59" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C40" s="59" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D40" s="59" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E40" s="59" t="s">
         <v>13</v>
@@ -3991,16 +3995,16 @@
       <c r="H40" s="61"/>
       <c r="I40" s="20"/>
       <c r="J40" s="30" t="s">
+        <v>117</v>
+      </c>
+      <c r="K40" s="31" t="s">
         <v>118</v>
       </c>
-      <c r="K40" s="31" t="s">
+      <c r="L40" s="31" t="s">
         <v>119</v>
       </c>
-      <c r="L40" s="31" t="s">
+      <c r="M40" s="31" t="s">
         <v>120</v>
-      </c>
-      <c r="M40" s="31" t="s">
-        <v>121</v>
       </c>
       <c r="N40" s="31" t="s">
         <v>19</v>
@@ -4009,22 +4013,22 @@
         <v>14</v>
       </c>
       <c r="P40" s="31" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="Q40" s="32" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="41" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="62"/>
       <c r="B41" s="59" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C41" s="59" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D41" s="59" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E41" s="59" t="s">
         <v>13</v>
@@ -4033,19 +4037,19 @@
         <v>37</v>
       </c>
       <c r="G41" s="59" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H41" s="61"/>
       <c r="I41" s="20"/>
       <c r="J41" s="62"/>
       <c r="K41" s="31" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="L41" s="31" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="M41" s="31" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="N41" s="31" t="s">
         <v>19</v>
@@ -4060,16 +4064,16 @@
         <v>16</v>
       </c>
     </row>
-    <row r="42" spans="1:17" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:17" ht="12" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="62"/>
       <c r="B42" s="59" t="s">
+        <v>132</v>
+      </c>
+      <c r="C42" s="59" t="s">
         <v>133</v>
       </c>
-      <c r="C42" s="59" t="s">
-        <v>134</v>
-      </c>
       <c r="D42" s="59" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E42" s="59" t="s">
         <v>13</v>
@@ -4084,13 +4088,13 @@
       <c r="I42" s="20"/>
       <c r="J42" s="70"/>
       <c r="K42" s="34" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L42" s="34" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M42" s="34" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="N42" s="34" t="s">
         <v>13</v>
@@ -4105,10 +4109,10 @@
         <v>16</v>
       </c>
     </row>
-    <row r="43" spans="1:17" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:17" ht="12" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="62"/>
       <c r="B43" s="75" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C43" s="75"/>
       <c r="D43" s="75"/>
@@ -4117,7 +4121,7 @@
         <v>43</v>
       </c>
       <c r="G43" s="75" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H43" s="76"/>
       <c r="I43" s="20"/>
@@ -4130,10 +4134,10 @@
       <c r="P43" s="49"/>
       <c r="Q43" s="52"/>
     </row>
-    <row r="44" spans="1:17" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:17" ht="12" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A44" s="62"/>
       <c r="B44" s="59" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C44" s="59"/>
       <c r="D44" s="59"/>
@@ -4142,12 +4146,12 @@
         <v>43</v>
       </c>
       <c r="G44" s="59" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H44" s="61"/>
       <c r="I44" s="20"/>
       <c r="J44" s="79" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K44" s="52"/>
       <c r="L44" s="55"/>
@@ -4157,10 +4161,10 @@
       <c r="P44" s="10"/>
       <c r="Q44" s="11"/>
     </row>
-    <row r="45" spans="1:17" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:17" ht="12" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="70"/>
       <c r="B45" s="71" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C45" s="71"/>
       <c r="D45" s="71"/>
@@ -4169,21 +4173,21 @@
         <v>43</v>
       </c>
       <c r="G45" s="71" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H45" s="72"/>
       <c r="I45" s="20"/>
       <c r="J45" s="53" t="s">
+        <v>134</v>
+      </c>
+      <c r="K45" s="56" t="s">
         <v>135</v>
       </c>
-      <c r="K45" s="56" t="s">
+      <c r="L45" s="56" t="s">
         <v>136</v>
       </c>
-      <c r="L45" s="56" t="s">
-        <v>137</v>
-      </c>
       <c r="M45" s="56" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="N45" s="56" t="s">
         <v>19</v>
@@ -4192,16 +4196,16 @@
         <v>14</v>
       </c>
       <c r="P45" s="56" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Q45" s="54" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:17" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="62"/>
       <c r="B46" s="59" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C46" s="59"/>
       <c r="D46" s="59"/>
@@ -4210,19 +4214,19 @@
         <v>43</v>
       </c>
       <c r="G46" s="59" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H46" s="61"/>
       <c r="I46" s="20"/>
       <c r="J46" s="62"/>
       <c r="K46" s="59" t="s">
+        <v>139</v>
+      </c>
+      <c r="L46" s="59" t="s">
         <v>140</v>
       </c>
-      <c r="L46" s="59" t="s">
-        <v>141</v>
-      </c>
       <c r="M46" s="59" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="N46" s="59" t="s">
         <v>13</v>
@@ -4231,16 +4235,16 @@
         <v>14</v>
       </c>
       <c r="P46" s="59" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="Q46" s="32">
         <v>4058</v>
       </c>
     </row>
-    <row r="47" spans="1:17" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:17" ht="12" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="70"/>
       <c r="B47" s="71" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C47" s="71"/>
       <c r="D47" s="71"/>
@@ -4249,19 +4253,19 @@
         <v>43</v>
       </c>
       <c r="G47" s="71" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H47" s="72"/>
       <c r="I47" s="20"/>
       <c r="J47" s="62"/>
       <c r="K47" s="59" t="s">
+        <v>143</v>
+      </c>
+      <c r="L47" s="59" t="s">
         <v>144</v>
       </c>
-      <c r="L47" s="59" t="s">
-        <v>145</v>
-      </c>
       <c r="M47" s="59" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="N47" s="59" t="s">
         <v>13</v>
@@ -4270,13 +4274,13 @@
         <v>14</v>
       </c>
       <c r="P47" s="59" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="Q47" s="32" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:17" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:17" ht="12" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A48" s="48"/>
       <c r="B48" s="49"/>
       <c r="C48" s="49"/>
@@ -4288,16 +4292,16 @@
       <c r="I48" s="20"/>
       <c r="J48" s="62"/>
       <c r="K48" s="59" t="s">
+        <v>147</v>
+      </c>
+      <c r="L48" s="59" t="s">
         <v>148</v>
       </c>
-      <c r="L48" s="59" t="s">
+      <c r="M48" s="59" t="s">
         <v>149</v>
       </c>
-      <c r="M48" s="59" t="s">
+      <c r="N48" s="59" t="s">
         <v>150</v>
-      </c>
-      <c r="N48" s="59" t="s">
-        <v>151</v>
       </c>
       <c r="O48" s="59" t="s">
         <v>14</v>
@@ -4309,9 +4313,9 @@
         <v>4444</v>
       </c>
     </row>
-    <row r="49" spans="1:17" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:17" ht="12" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="73" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B49" s="18"/>
       <c r="C49" s="19"/>
@@ -4323,13 +4327,13 @@
       <c r="I49" s="20"/>
       <c r="J49" s="62"/>
       <c r="K49" s="59" t="s">
+        <v>153</v>
+      </c>
+      <c r="L49" s="59" t="s">
+        <v>81</v>
+      </c>
+      <c r="M49" s="59" t="s">
         <v>154</v>
-      </c>
-      <c r="L49" s="59" t="s">
-        <v>82</v>
-      </c>
-      <c r="M49" s="59" t="s">
-        <v>155</v>
       </c>
       <c r="N49" s="59" t="s">
         <v>13</v>
@@ -4342,18 +4346,18 @@
       </c>
       <c r="Q49" s="61"/>
     </row>
-    <row r="50" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:17" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="53" t="s">
+        <v>161</v>
+      </c>
+      <c r="B50" s="56" t="s">
         <v>162</v>
       </c>
-      <c r="B50" s="56" t="s">
-        <v>163</v>
-      </c>
       <c r="C50" s="56" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D50" s="56" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E50" s="56" t="s">
         <v>13</v>
@@ -4362,7 +4366,7 @@
         <v>14</v>
       </c>
       <c r="G50" s="56" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H50" s="54"/>
       <c r="I50" s="20"/>
@@ -4370,13 +4374,13 @@
         <v>1</v>
       </c>
       <c r="K50" s="59" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="L50" s="59" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M50" s="59" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="N50" s="59" t="s">
         <v>19</v>
@@ -4385,20 +4389,20 @@
         <v>37</v>
       </c>
       <c r="P50" s="59" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="Q50" s="61"/>
     </row>
-    <row r="51" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:17" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="62"/>
       <c r="B51" s="59" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C51" s="59" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D51" s="59" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E51" s="59" t="s">
         <v>13</v>
@@ -4407,7 +4411,7 @@
         <v>14</v>
       </c>
       <c r="G51" s="59" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H51" s="61">
         <v>4526</v>
@@ -4417,13 +4421,13 @@
         <v>1</v>
       </c>
       <c r="K51" s="59" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="L51" s="59" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="M51" s="59" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="N51" s="59" t="s">
         <v>13</v>
@@ -4432,20 +4436,20 @@
         <v>37</v>
       </c>
       <c r="P51" s="59" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="Q51" s="61"/>
     </row>
-    <row r="52" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:17" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="62"/>
       <c r="B52" s="59" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C52" s="59" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D52" s="59" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E52" s="59" t="s">
         <v>19</v>
@@ -4454,7 +4458,7 @@
         <v>14</v>
       </c>
       <c r="G52" s="59" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H52" s="61"/>
       <c r="I52" s="15"/>
@@ -4462,13 +4466,13 @@
         <v>1</v>
       </c>
       <c r="K52" s="59" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="L52" s="59" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M52" s="59" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="N52" s="59" t="s">
         <v>19</v>
@@ -4477,20 +4481,20 @@
         <v>37</v>
       </c>
       <c r="P52" s="59" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="Q52" s="61"/>
     </row>
-    <row r="53" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:17" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="62"/>
       <c r="B53" s="59" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C53" s="59" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D53" s="59" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E53" s="59" t="s">
         <v>19</v>
@@ -4499,7 +4503,7 @@
         <v>14</v>
       </c>
       <c r="G53" s="59" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H53" s="61"/>
       <c r="I53" s="20"/>
@@ -4507,13 +4511,13 @@
         <v>1</v>
       </c>
       <c r="K53" s="59" t="s">
+        <v>163</v>
+      </c>
+      <c r="L53" s="59" t="s">
         <v>164</v>
       </c>
-      <c r="L53" s="59" t="s">
-        <v>165</v>
-      </c>
       <c r="M53" s="59" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="N53" s="59" t="s">
         <v>19</v>
@@ -4522,20 +4526,20 @@
         <v>37</v>
       </c>
       <c r="P53" s="59" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="Q53" s="61"/>
     </row>
-    <row r="54" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:17" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="62"/>
       <c r="B54" s="59" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C54" s="59" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D54" s="59" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E54" s="59" t="s">
         <v>13</v>
@@ -4544,13 +4548,13 @@
         <v>14</v>
       </c>
       <c r="G54" s="59" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H54" s="61"/>
       <c r="I54" s="20"/>
       <c r="J54" s="62"/>
       <c r="K54" s="59" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="L54" s="59"/>
       <c r="M54" s="59"/>
@@ -4559,20 +4563,20 @@
         <v>43</v>
       </c>
       <c r="P54" s="59" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="Q54" s="61"/>
     </row>
-    <row r="55" spans="1:17" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:17" ht="12" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="62"/>
       <c r="B55" s="59" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C55" s="59" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D55" s="59" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E55" s="59" t="s">
         <v>13</v>
@@ -4581,13 +4585,13 @@
         <v>14</v>
       </c>
       <c r="G55" s="59" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H55" s="61"/>
       <c r="I55" s="20"/>
       <c r="J55" s="70"/>
       <c r="K55" s="71" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="L55" s="71"/>
       <c r="M55" s="71"/>
@@ -4596,22 +4600,22 @@
         <v>43</v>
       </c>
       <c r="P55" s="71" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="Q55" s="72"/>
     </row>
-    <row r="56" spans="1:17" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:17" ht="12" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A56" s="62" t="s">
         <v>1</v>
       </c>
       <c r="B56" s="59" t="s">
+        <v>176</v>
+      </c>
+      <c r="C56" s="59" t="s">
+        <v>54</v>
+      </c>
+      <c r="D56" s="59" t="s">
         <v>177</v>
-      </c>
-      <c r="C56" s="59" t="s">
-        <v>55</v>
-      </c>
-      <c r="D56" s="59" t="s">
-        <v>178</v>
       </c>
       <c r="E56" s="59" t="s">
         <v>19</v>
@@ -4620,7 +4624,7 @@
         <v>14</v>
       </c>
       <c r="G56" s="59" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H56" s="61"/>
       <c r="I56" s="20"/>
@@ -4633,16 +4637,16 @@
       <c r="P56" s="80"/>
       <c r="Q56" s="81"/>
     </row>
-    <row r="57" spans="1:17" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:17" ht="12" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="62"/>
       <c r="B57" s="59" t="s">
+        <v>181</v>
+      </c>
+      <c r="C57" s="59" t="s">
+        <v>164</v>
+      </c>
+      <c r="D57" s="59" t="s">
         <v>182</v>
-      </c>
-      <c r="C57" s="59" t="s">
-        <v>165</v>
-      </c>
-      <c r="D57" s="59" t="s">
-        <v>183</v>
       </c>
       <c r="E57" s="59" t="s">
         <v>13</v>
@@ -4651,14 +4655,14 @@
         <v>14</v>
       </c>
       <c r="G57" s="59" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H57" s="61">
         <v>4208</v>
       </c>
       <c r="I57" s="36"/>
       <c r="J57" s="82" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="K57" s="18"/>
       <c r="L57" s="19"/>
@@ -4668,16 +4672,16 @@
       <c r="P57" s="13"/>
       <c r="Q57" s="16"/>
     </row>
-    <row r="58" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:17" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="62"/>
       <c r="B58" s="59" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C58" s="59" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D58" s="59" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E58" s="59" t="s">
         <v>13</v>
@@ -4686,7 +4690,7 @@
         <v>14</v>
       </c>
       <c r="G58" s="59" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H58" s="61"/>
       <c r="I58" s="20"/>
@@ -4715,10 +4719,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:17" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="62"/>
       <c r="B59" s="59" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C59" s="59"/>
       <c r="D59" s="59"/>
@@ -4728,16 +4732,16 @@
       <c r="H59" s="61"/>
       <c r="I59" s="20"/>
       <c r="J59" s="62" t="s">
+        <v>179</v>
+      </c>
+      <c r="K59" s="59" t="s">
         <v>180</v>
       </c>
-      <c r="K59" s="59" t="s">
-        <v>181</v>
-      </c>
       <c r="L59" s="59" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="M59" s="59" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="N59" s="59" t="s">
         <v>13</v>
@@ -4746,24 +4750,24 @@
         <v>14</v>
       </c>
       <c r="P59" s="59" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="Q59" s="61" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:17" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="62" t="s">
         <v>1</v>
       </c>
       <c r="B60" s="59" t="s">
+        <v>192</v>
+      </c>
+      <c r="C60" s="59" t="s">
         <v>193</v>
       </c>
-      <c r="C60" s="59" t="s">
-        <v>194</v>
-      </c>
       <c r="D60" s="59" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E60" s="59" t="s">
         <v>19</v>
@@ -4772,7 +4776,7 @@
         <v>14</v>
       </c>
       <c r="G60" s="59" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H60" s="61"/>
       <c r="I60" s="20"/>
@@ -4781,7 +4785,7 @@
         <v>1124</v>
       </c>
       <c r="L60" s="59" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="M60" s="59">
         <v>1124</v>
@@ -4797,16 +4801,16 @@
         <v>4842</v>
       </c>
     </row>
-    <row r="61" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:17" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="62"/>
       <c r="B61" s="59" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C61" s="59" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D61" s="59" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E61" s="59" t="s">
         <v>13</v>
@@ -4815,19 +4819,19 @@
         <v>26</v>
       </c>
       <c r="G61" s="59" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H61" s="61"/>
       <c r="I61" s="20"/>
       <c r="J61" s="62"/>
       <c r="K61" s="59" t="s">
+        <v>186</v>
+      </c>
+      <c r="L61" s="59" t="s">
         <v>187</v>
       </c>
-      <c r="L61" s="59" t="s">
-        <v>188</v>
-      </c>
       <c r="M61" s="59" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="N61" s="59" t="s">
         <v>13</v>
@@ -4836,33 +4840,33 @@
         <v>14</v>
       </c>
       <c r="P61" s="59" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="Q61" s="61"/>
     </row>
-    <row r="62" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:17" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="62"/>
       <c r="B62" s="59" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C62" s="59"/>
       <c r="D62" s="59"/>
       <c r="E62" s="59"/>
       <c r="F62" s="59"/>
       <c r="G62" s="59" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H62" s="61"/>
       <c r="I62" s="20"/>
       <c r="J62" s="62"/>
       <c r="K62" s="59" t="s">
+        <v>189</v>
+      </c>
+      <c r="L62" s="59" t="s">
         <v>190</v>
       </c>
-      <c r="L62" s="59" t="s">
-        <v>191</v>
-      </c>
       <c r="M62" s="59" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="N62" s="59" t="s">
         <v>13</v>
@@ -4871,14 +4875,14 @@
         <v>14</v>
       </c>
       <c r="P62" s="59" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="Q62" s="61"/>
     </row>
-    <row r="63" spans="1:17" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:17" ht="12" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A63" s="83"/>
       <c r="B63" s="13" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C63" s="13" t="s">
         <v>1</v>
@@ -4893,19 +4897,19 @@
         <v>1</v>
       </c>
       <c r="G63" s="13" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H63" s="16"/>
       <c r="I63" s="20"/>
       <c r="J63" s="62"/>
       <c r="K63" s="59" t="s">
+        <v>194</v>
+      </c>
+      <c r="L63" s="59" t="s">
         <v>195</v>
       </c>
-      <c r="L63" s="59" t="s">
-        <v>196</v>
-      </c>
       <c r="M63" s="59" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="N63" s="59" t="s">
         <v>13</v>
@@ -4914,11 +4918,11 @@
         <v>14</v>
       </c>
       <c r="P63" s="59" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="Q63" s="61"/>
     </row>
-    <row r="64" spans="1:17" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:17" ht="12" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="17"/>
       <c r="B64" s="18"/>
       <c r="C64" s="18"/>
@@ -4930,13 +4934,13 @@
       <c r="I64" s="20"/>
       <c r="J64" s="62"/>
       <c r="K64" s="59" t="s">
+        <v>197</v>
+      </c>
+      <c r="L64" s="59" t="s">
         <v>198</v>
       </c>
-      <c r="L64" s="59" t="s">
-        <v>199</v>
-      </c>
       <c r="M64" s="59" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="N64" s="59" t="s">
         <v>13</v>
@@ -4945,11 +4949,11 @@
         <v>14</v>
       </c>
       <c r="P64" s="59" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="Q64" s="61"/>
     </row>
-    <row r="65" spans="1:17" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:17" ht="12" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A65" s="86"/>
       <c r="B65" s="10"/>
       <c r="C65" s="87"/>
@@ -4963,13 +4967,13 @@
         <v>1</v>
       </c>
       <c r="K65" s="59" t="s">
+        <v>200</v>
+      </c>
+      <c r="L65" s="59" t="s">
         <v>201</v>
       </c>
-      <c r="L65" s="59" t="s">
-        <v>202</v>
-      </c>
       <c r="M65" s="59" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="N65" s="59" t="s">
         <v>13</v>
@@ -4978,13 +4982,13 @@
         <v>37</v>
       </c>
       <c r="P65" s="59" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="Q65" s="61"/>
     </row>
-    <row r="66" spans="1:17" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:17" ht="12" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="73" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B66" s="18"/>
       <c r="C66" s="19"/>
@@ -4998,13 +5002,13 @@
         <v>1</v>
       </c>
       <c r="K66" s="71" t="s">
+        <v>203</v>
+      </c>
+      <c r="L66" s="71" t="s">
         <v>204</v>
       </c>
-      <c r="L66" s="71" t="s">
-        <v>205</v>
-      </c>
       <c r="M66" s="71" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="N66" s="71" t="s">
         <v>13</v>
@@ -5013,11 +5017,11 @@
         <v>37</v>
       </c>
       <c r="P66" s="71" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="Q66" s="72"/>
     </row>
-    <row r="67" spans="1:17" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:17" ht="12" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="17" t="s">
         <v>3</v>
       </c>
@@ -5028,19 +5032,19 @@
         <v>5</v>
       </c>
       <c r="D67" s="18" t="s">
+        <v>206</v>
+      </c>
+      <c r="E67" s="18" t="s">
         <v>207</v>
       </c>
-      <c r="E67" s="18" t="s">
+      <c r="F67" s="18" t="s">
         <v>208</v>
       </c>
-      <c r="F67" s="18" t="s">
+      <c r="G67" s="18" t="s">
         <v>209</v>
       </c>
-      <c r="G67" s="18" t="s">
+      <c r="H67" s="19" t="s">
         <v>210</v>
-      </c>
-      <c r="H67" s="19" t="s">
-        <v>211</v>
       </c>
       <c r="I67" s="84"/>
       <c r="J67" s="78"/>
@@ -5052,18 +5056,18 @@
       <c r="P67" s="78"/>
       <c r="Q67" s="85"/>
     </row>
-    <row r="68" spans="1:17" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:17" ht="12" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A68" s="24" t="s">
+        <v>211</v>
+      </c>
+      <c r="B68" s="25" t="s">
         <v>212</v>
       </c>
-      <c r="B68" s="25" t="s">
+      <c r="C68" s="25" t="s">
         <v>213</v>
       </c>
-      <c r="C68" s="25" t="s">
-        <v>214</v>
-      </c>
       <c r="D68" s="25" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E68" s="25" t="s">
         <v>13</v>
@@ -5072,10 +5076,10 @@
         <v>14</v>
       </c>
       <c r="G68" s="25" t="s">
+        <v>214</v>
+      </c>
+      <c r="H68" s="26" t="s">
         <v>215</v>
-      </c>
-      <c r="H68" s="26" t="s">
-        <v>216</v>
       </c>
       <c r="I68" s="56"/>
       <c r="J68" s="56"/>
@@ -5087,16 +5091,16 @@
       <c r="P68" s="56"/>
       <c r="Q68" s="54"/>
     </row>
-    <row r="69" spans="1:17" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:17" ht="12" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="30"/>
       <c r="B69" s="31" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C69" s="31" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D69" s="31" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E69" s="31" t="s">
         <v>19</v>
@@ -5105,14 +5109,14 @@
         <v>14</v>
       </c>
       <c r="G69" s="31" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H69" s="32">
         <v>4061</v>
       </c>
       <c r="I69" s="89"/>
       <c r="J69" s="73" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="K69" s="68"/>
       <c r="L69" s="69"/>
@@ -5122,16 +5126,16 @@
       <c r="P69" s="13"/>
       <c r="Q69" s="16"/>
     </row>
-    <row r="70" spans="1:17" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:17" ht="12" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="30"/>
       <c r="B70" s="31" t="s">
+        <v>221</v>
+      </c>
+      <c r="C70" s="31" t="s">
         <v>222</v>
       </c>
-      <c r="C70" s="31" t="s">
-        <v>223</v>
-      </c>
       <c r="D70" s="31" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E70" s="31" t="s">
         <v>13</v>
@@ -5140,10 +5144,10 @@
         <v>14</v>
       </c>
       <c r="G70" s="31" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H70" s="32" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="I70" s="20"/>
       <c r="J70" s="17" t="s">
@@ -5156,31 +5160,31 @@
         <v>5</v>
       </c>
       <c r="M70" s="18" t="s">
+        <v>206</v>
+      </c>
+      <c r="N70" s="18" t="s">
         <v>207</v>
       </c>
-      <c r="N70" s="18" t="s">
+      <c r="O70" s="18" t="s">
         <v>208</v>
       </c>
-      <c r="O70" s="18" t="s">
+      <c r="P70" s="18" t="s">
         <v>209</v>
       </c>
-      <c r="P70" s="18" t="s">
+      <c r="Q70" s="19" t="s">
         <v>210</v>
       </c>
-      <c r="Q70" s="19" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="71" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="71" spans="1:17" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="30"/>
       <c r="B71" s="31" t="s">
+        <v>226</v>
+      </c>
+      <c r="C71" s="31" t="s">
         <v>227</v>
       </c>
-      <c r="C71" s="31" t="s">
+      <c r="D71" s="31" t="s">
         <v>228</v>
-      </c>
-      <c r="D71" s="31" t="s">
-        <v>229</v>
       </c>
       <c r="E71" s="31" t="s">
         <v>13</v>
@@ -5189,20 +5193,20 @@
         <v>14</v>
       </c>
       <c r="G71" s="31" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H71" s="32" t="s">
         <v>15</v>
       </c>
       <c r="I71" s="90"/>
       <c r="J71" s="53" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="K71" s="56">
         <v>1023</v>
       </c>
       <c r="L71" s="56" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="M71" s="56">
         <v>1023</v>
@@ -5216,16 +5220,16 @@
       <c r="P71" s="56"/>
       <c r="Q71" s="54"/>
     </row>
-    <row r="72" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:17" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="30"/>
       <c r="B72" s="31" t="s">
+        <v>231</v>
+      </c>
+      <c r="C72" s="31" t="s">
         <v>232</v>
       </c>
-      <c r="C72" s="31" t="s">
+      <c r="D72" s="31" t="s">
         <v>233</v>
-      </c>
-      <c r="D72" s="31" t="s">
-        <v>234</v>
       </c>
       <c r="E72" s="31" t="s">
         <v>13</v>
@@ -5234,7 +5238,7 @@
         <v>14</v>
       </c>
       <c r="G72" s="31" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H72" s="32"/>
       <c r="I72" s="15"/>
@@ -5243,7 +5247,7 @@
         <v>1115</v>
       </c>
       <c r="L72" s="59" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="M72" s="59">
         <v>1115</v>
@@ -5259,16 +5263,16 @@
         <v>4737</v>
       </c>
     </row>
-    <row r="73" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:17" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="30"/>
       <c r="B73" s="31" t="s">
+        <v>235</v>
+      </c>
+      <c r="C73" s="31" t="s">
         <v>236</v>
       </c>
-      <c r="C73" s="31" t="s">
+      <c r="D73" s="31" t="s">
         <v>237</v>
-      </c>
-      <c r="D73" s="31" t="s">
-        <v>238</v>
       </c>
       <c r="E73" s="31" t="s">
         <v>19</v>
@@ -5277,13 +5281,13 @@
         <v>26</v>
       </c>
       <c r="G73" s="31" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H73" s="32"/>
       <c r="I73" s="59"/>
       <c r="J73" s="62"/>
       <c r="K73" s="59" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="L73" s="59"/>
       <c r="M73" s="59"/>
@@ -5292,20 +5296,20 @@
         <v>14</v>
       </c>
       <c r="P73" s="59" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="Q73" s="61"/>
     </row>
-    <row r="74" spans="1:17" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:17" ht="12" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="33"/>
       <c r="B74" s="34" t="s">
+        <v>239</v>
+      </c>
+      <c r="C74" s="34" t="s">
+        <v>140</v>
+      </c>
+      <c r="D74" s="34" t="s">
         <v>240</v>
-      </c>
-      <c r="C74" s="34" t="s">
-        <v>141</v>
-      </c>
-      <c r="D74" s="34" t="s">
-        <v>241</v>
       </c>
       <c r="E74" s="34" t="s">
         <v>19</v>
@@ -5314,13 +5318,13 @@
         <v>26</v>
       </c>
       <c r="G74" s="34" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H74" s="35"/>
       <c r="I74" s="20"/>
       <c r="J74" s="62"/>
       <c r="K74" s="59" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="L74" s="59"/>
       <c r="M74" s="59"/>
@@ -5329,11 +5333,11 @@
         <v>14</v>
       </c>
       <c r="P74" s="59" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="Q74" s="61"/>
     </row>
-    <row r="75" spans="1:17" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:17" ht="12" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A75" s="91"/>
       <c r="B75" s="80"/>
       <c r="C75" s="80"/>
@@ -5345,7 +5349,7 @@
       <c r="I75" s="20"/>
       <c r="J75" s="83"/>
       <c r="K75" s="13" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="L75" s="13"/>
       <c r="M75" s="13"/>
@@ -5358,9 +5362,9 @@
       </c>
       <c r="Q75" s="16"/>
     </row>
-    <row r="76" spans="1:17" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:17" ht="12" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="73" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B76" s="18"/>
       <c r="C76" s="19"/>
@@ -5379,18 +5383,18 @@
       <c r="P76" s="71"/>
       <c r="Q76" s="72"/>
     </row>
-    <row r="77" spans="1:17" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:17" ht="12" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A77" s="24" t="s">
+        <v>245</v>
+      </c>
+      <c r="B77" s="25" t="s">
         <v>246</v>
       </c>
-      <c r="B77" s="25" t="s">
-        <v>247</v>
-      </c>
       <c r="C77" s="25" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D77" s="25" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E77" s="25" t="s">
         <v>13</v>
@@ -5399,10 +5403,10 @@
         <v>14</v>
       </c>
       <c r="G77" s="25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H77" s="26" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="I77" s="15"/>
       <c r="J77" s="80"/>
@@ -5414,18 +5418,18 @@
       <c r="P77" s="80"/>
       <c r="Q77" s="81"/>
     </row>
-    <row r="78" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:17" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="30" t="s">
         <v>1</v>
       </c>
       <c r="B78" s="31" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C78" s="31" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D78" s="31" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E78" s="31" t="s">
         <v>19</v>
@@ -5434,20 +5438,20 @@
         <v>14</v>
       </c>
       <c r="G78" s="31" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H78" s="32">
         <v>4122</v>
       </c>
       <c r="I78" s="20"/>
       <c r="J78" s="53" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="K78" s="56">
         <v>986</v>
       </c>
       <c r="L78" s="56" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="M78" s="56">
         <v>986</v>
@@ -5463,16 +5467,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:17" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="30"/>
       <c r="B79" s="31" t="s">
+        <v>254</v>
+      </c>
+      <c r="C79" s="31" t="s">
         <v>255</v>
       </c>
-      <c r="C79" s="31" t="s">
+      <c r="D79" s="31" t="s">
         <v>256</v>
-      </c>
-      <c r="D79" s="31" t="s">
-        <v>257</v>
       </c>
       <c r="E79" s="31" t="s">
         <v>13</v>
@@ -5481,10 +5485,10 @@
         <v>14</v>
       </c>
       <c r="G79" s="31" t="s">
+        <v>257</v>
+      </c>
+      <c r="H79" s="32" t="s">
         <v>258</v>
-      </c>
-      <c r="H79" s="32" t="s">
-        <v>259</v>
       </c>
       <c r="I79" s="36"/>
       <c r="J79" s="62"/>
@@ -5492,7 +5496,7 @@
         <v>1126</v>
       </c>
       <c r="L79" s="59" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="M79" s="59">
         <v>1126</v>
@@ -5506,16 +5510,16 @@
       <c r="P79" s="59"/>
       <c r="Q79" s="61"/>
     </row>
-    <row r="80" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:17" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="30"/>
       <c r="B80" s="31" t="s">
+        <v>261</v>
+      </c>
+      <c r="C80" s="31" t="s">
         <v>262</v>
       </c>
-      <c r="C80" s="31" t="s">
+      <c r="D80" s="31" t="s">
         <v>263</v>
-      </c>
-      <c r="D80" s="31" t="s">
-        <v>264</v>
       </c>
       <c r="E80" s="31" t="s">
         <v>19</v>
@@ -5524,21 +5528,21 @@
         <v>14</v>
       </c>
       <c r="G80" s="31" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H80" s="32" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="I80" s="20"/>
       <c r="J80" s="62"/>
       <c r="K80" s="59" t="s">
+        <v>248</v>
+      </c>
+      <c r="L80" s="59" t="s">
         <v>249</v>
       </c>
-      <c r="L80" s="59" t="s">
-        <v>250</v>
-      </c>
       <c r="M80" s="59" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="N80" s="59" t="s">
         <v>13</v>
@@ -5547,22 +5551,22 @@
         <v>14</v>
       </c>
       <c r="P80" s="59" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="Q80" s="61" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:17" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="30"/>
       <c r="B81" s="31" t="s">
+        <v>268</v>
+      </c>
+      <c r="C81" s="31" t="s">
         <v>269</v>
       </c>
-      <c r="C81" s="31" t="s">
+      <c r="D81" s="31" t="s">
         <v>270</v>
-      </c>
-      <c r="D81" s="31" t="s">
-        <v>271</v>
       </c>
       <c r="E81" s="31" t="s">
         <v>19</v>
@@ -5571,19 +5575,19 @@
         <v>14</v>
       </c>
       <c r="G81" s="31" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H81" s="32"/>
       <c r="I81" s="20"/>
       <c r="J81" s="62"/>
       <c r="K81" s="59" t="s">
+        <v>252</v>
+      </c>
+      <c r="L81" s="59" t="s">
         <v>253</v>
       </c>
-      <c r="L81" s="59" t="s">
-        <v>254</v>
-      </c>
       <c r="M81" s="59" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="N81" s="59" t="s">
         <v>13</v>
@@ -5592,20 +5596,20 @@
         <v>14</v>
       </c>
       <c r="P81" s="59" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="Q81" s="61"/>
     </row>
-    <row r="82" spans="1:17" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:17" ht="12" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="33"/>
       <c r="B82" s="34" t="s">
+        <v>275</v>
+      </c>
+      <c r="C82" s="34" t="s">
         <v>276</v>
       </c>
-      <c r="C82" s="34" t="s">
+      <c r="D82" s="34" t="s">
         <v>277</v>
-      </c>
-      <c r="D82" s="34" t="s">
-        <v>278</v>
       </c>
       <c r="E82" s="34" t="s">
         <v>13</v>
@@ -5614,7 +5618,7 @@
         <v>14</v>
       </c>
       <c r="G82" s="34" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H82" s="35" t="s">
         <v>1</v>
@@ -5622,13 +5626,13 @@
       <c r="I82" s="20"/>
       <c r="J82" s="62"/>
       <c r="K82" s="59" t="s">
+        <v>259</v>
+      </c>
+      <c r="L82" s="59" t="s">
         <v>260</v>
       </c>
-      <c r="L82" s="59" t="s">
-        <v>261</v>
-      </c>
       <c r="M82" s="59" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="N82" s="59" t="s">
         <v>19</v>
@@ -5637,11 +5641,11 @@
         <v>14</v>
       </c>
       <c r="P82" s="59" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="Q82" s="61"/>
     </row>
-    <row r="83" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:17" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="91"/>
       <c r="B83" s="80"/>
       <c r="C83" s="80"/>
@@ -5653,13 +5657,13 @@
       <c r="I83" s="15"/>
       <c r="J83" s="62"/>
       <c r="K83" s="59" t="s">
+        <v>265</v>
+      </c>
+      <c r="L83" s="59" t="s">
         <v>266</v>
       </c>
-      <c r="L83" s="59" t="s">
-        <v>267</v>
-      </c>
       <c r="M83" s="59" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="N83" s="59" t="s">
         <v>13</v>
@@ -5668,15 +5672,15 @@
         <v>14</v>
       </c>
       <c r="P83" s="59" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="Q83" s="61">
         <v>4367</v>
       </c>
     </row>
-    <row r="84" spans="1:17" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:17" ht="12" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A84" s="92" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B84" s="13"/>
       <c r="C84" s="13"/>
@@ -5688,13 +5692,13 @@
       <c r="I84" s="15"/>
       <c r="J84" s="62"/>
       <c r="K84" s="59" t="s">
+        <v>271</v>
+      </c>
+      <c r="L84" s="59" t="s">
         <v>272</v>
       </c>
-      <c r="L84" s="59" t="s">
+      <c r="M84" s="59" t="s">
         <v>273</v>
-      </c>
-      <c r="M84" s="59" t="s">
-        <v>274</v>
       </c>
       <c r="N84" s="59" t="s">
         <v>19</v>
@@ -5703,22 +5707,22 @@
         <v>14</v>
       </c>
       <c r="P84" s="59" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Q84" s="61"/>
     </row>
-    <row r="85" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:17" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="53" t="s">
+        <v>289</v>
+      </c>
+      <c r="B85" s="56" t="s">
         <v>290</v>
       </c>
-      <c r="B85" s="56" t="s">
+      <c r="C85" s="56" t="s">
+        <v>217</v>
+      </c>
+      <c r="D85" s="56" t="s">
         <v>291</v>
-      </c>
-      <c r="C85" s="56" t="s">
-        <v>218</v>
-      </c>
-      <c r="D85" s="56" t="s">
-        <v>292</v>
       </c>
       <c r="E85" s="56" t="s">
         <v>13</v>
@@ -5727,7 +5731,7 @@
         <v>14</v>
       </c>
       <c r="G85" s="56" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="H85" s="26">
         <v>4113</v>
@@ -5735,13 +5739,13 @@
       <c r="I85" s="36"/>
       <c r="J85" s="62"/>
       <c r="K85" s="59" t="s">
+        <v>278</v>
+      </c>
+      <c r="L85" s="59" t="s">
         <v>279</v>
       </c>
-      <c r="L85" s="59" t="s">
+      <c r="M85" s="59" t="s">
         <v>280</v>
-      </c>
-      <c r="M85" s="59" t="s">
-        <v>281</v>
       </c>
       <c r="N85" s="59" t="s">
         <v>13</v>
@@ -5750,20 +5754,20 @@
         <v>14</v>
       </c>
       <c r="P85" s="59" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Q85" s="61"/>
     </row>
-    <row r="86" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:17" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="62"/>
       <c r="B86" s="59" t="s">
+        <v>294</v>
+      </c>
+      <c r="C86" s="59" t="s">
+        <v>220</v>
+      </c>
+      <c r="D86" s="59" t="s">
         <v>295</v>
-      </c>
-      <c r="C86" s="59" t="s">
-        <v>221</v>
-      </c>
-      <c r="D86" s="59" t="s">
-        <v>296</v>
       </c>
       <c r="E86" s="59" t="s">
         <v>19</v>
@@ -5772,19 +5776,19 @@
         <v>14</v>
       </c>
       <c r="G86" s="59" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="H86" s="61"/>
       <c r="I86" s="36"/>
       <c r="J86" s="62"/>
       <c r="K86" s="59" t="s">
+        <v>281</v>
+      </c>
+      <c r="L86" s="59" t="s">
         <v>282</v>
       </c>
-      <c r="L86" s="59" t="s">
+      <c r="M86" s="59" t="s">
         <v>283</v>
-      </c>
-      <c r="M86" s="59" t="s">
-        <v>284</v>
       </c>
       <c r="N86" s="59" t="s">
         <v>13</v>
@@ -5793,14 +5797,14 @@
         <v>14</v>
       </c>
       <c r="P86" s="59" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="Q86" s="61"/>
     </row>
-    <row r="87" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:17" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="62"/>
       <c r="B87" s="59" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C87" s="59"/>
       <c r="D87" s="59"/>
@@ -5809,19 +5813,19 @@
         <v>14</v>
       </c>
       <c r="G87" s="59" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="H87" s="61"/>
       <c r="I87" s="36"/>
       <c r="J87" s="62"/>
       <c r="K87" s="59" t="s">
+        <v>286</v>
+      </c>
+      <c r="L87" s="59" t="s">
         <v>287</v>
       </c>
-      <c r="L87" s="59" t="s">
+      <c r="M87" s="59" t="s">
         <v>288</v>
-      </c>
-      <c r="M87" s="59" t="s">
-        <v>289</v>
       </c>
       <c r="N87" s="59" t="s">
         <v>13</v>
@@ -5830,14 +5834,14 @@
         <v>14</v>
       </c>
       <c r="P87" s="59" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="Q87" s="61"/>
     </row>
-    <row r="88" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:17" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="62"/>
       <c r="B88" s="59" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C88" s="59"/>
       <c r="D88" s="59"/>
@@ -5846,13 +5850,13 @@
         <v>14</v>
       </c>
       <c r="G88" s="59" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="H88" s="61"/>
       <c r="I88" s="20"/>
       <c r="J88" s="62"/>
       <c r="K88" s="59" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="L88" s="59"/>
       <c r="M88" s="59"/>
@@ -5861,14 +5865,14 @@
         <v>26</v>
       </c>
       <c r="P88" s="59" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Q88" s="61"/>
     </row>
-    <row r="89" spans="1:17" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:17" ht="12" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A89" s="62"/>
       <c r="B89" s="59" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C89" s="59"/>
       <c r="D89" s="59"/>
@@ -5877,13 +5881,13 @@
         <v>14</v>
       </c>
       <c r="G89" s="59" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="H89" s="61"/>
       <c r="I89" s="20"/>
       <c r="J89" s="70"/>
       <c r="K89" s="71" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="L89" s="71" t="s">
         <v>1</v>
@@ -5898,14 +5902,14 @@
         <v>26</v>
       </c>
       <c r="P89" s="71" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Q89" s="72"/>
     </row>
-    <row r="90" spans="1:17" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:17" ht="12" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A90" s="62"/>
       <c r="B90" s="59" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C90" s="59"/>
       <c r="D90" s="59"/>
@@ -5914,7 +5918,7 @@
         <v>14</v>
       </c>
       <c r="G90" s="59" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="H90" s="61"/>
       <c r="I90" s="20"/>
@@ -5927,10 +5931,10 @@
       <c r="P90" s="80"/>
       <c r="Q90" s="81"/>
     </row>
-    <row r="91" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:17" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="62"/>
       <c r="B91" s="59" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C91" s="59"/>
       <c r="D91" s="59"/>
@@ -5939,18 +5943,18 @@
         <v>26</v>
       </c>
       <c r="G91" s="59" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H91" s="61"/>
       <c r="I91" s="20"/>
       <c r="J91" s="93" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="K91" s="56">
         <v>971</v>
       </c>
       <c r="L91" s="56" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="M91" s="56">
         <v>971</v>
@@ -5966,10 +5970,10 @@
         <v>4556</v>
       </c>
     </row>
-    <row r="92" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:17" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="62"/>
       <c r="B92" s="59" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C92" s="59"/>
       <c r="D92" s="59"/>
@@ -5978,21 +5982,21 @@
         <v>26</v>
       </c>
       <c r="G92" s="59" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H92" s="61"/>
       <c r="I92" s="20"/>
       <c r="J92" s="62" t="s">
+        <v>299</v>
+      </c>
+      <c r="K92" s="59" t="s">
         <v>300</v>
       </c>
-      <c r="K92" s="59" t="s">
-        <v>301</v>
-      </c>
       <c r="L92" s="59" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="M92" s="59" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="N92" s="59" t="s">
         <v>13</v>
@@ -6001,14 +6005,14 @@
         <v>14</v>
       </c>
       <c r="P92" s="59" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="Q92" s="61"/>
     </row>
-    <row r="93" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:17" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="62"/>
       <c r="B93" s="59" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C93" s="59"/>
       <c r="D93" s="59"/>
@@ -6017,7 +6021,7 @@
         <v>37</v>
       </c>
       <c r="G93" s="59" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H93" s="61" t="s">
         <v>1</v>
@@ -6025,13 +6029,13 @@
       <c r="I93" s="20"/>
       <c r="J93" s="62"/>
       <c r="K93" s="59" t="s">
+        <v>301</v>
+      </c>
+      <c r="L93" s="59" t="s">
         <v>302</v>
       </c>
-      <c r="L93" s="59" t="s">
-        <v>303</v>
-      </c>
       <c r="M93" s="59" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="N93" s="59" t="s">
         <v>19</v>
@@ -6040,16 +6044,16 @@
         <v>14</v>
       </c>
       <c r="P93" s="59" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="Q93" s="61" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:17" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="62"/>
       <c r="B94" s="59" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C94" s="59"/>
       <c r="D94" s="59"/>
@@ -6058,19 +6062,19 @@
         <v>37</v>
       </c>
       <c r="G94" s="59" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H94" s="61"/>
       <c r="I94" s="20"/>
       <c r="J94" s="62"/>
       <c r="K94" s="59" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="L94" s="59" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="M94" s="59" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="N94" s="59" t="s">
         <v>13</v>
@@ -6079,14 +6083,14 @@
         <v>14</v>
       </c>
       <c r="P94" s="59" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="Q94" s="61"/>
     </row>
-    <row r="95" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:17" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="62"/>
       <c r="B95" s="59" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C95" s="59"/>
       <c r="D95" s="59"/>
@@ -6095,19 +6099,19 @@
         <v>43</v>
       </c>
       <c r="G95" s="59" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H95" s="61"/>
       <c r="I95" s="20"/>
       <c r="J95" s="62"/>
       <c r="K95" s="59" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="L95" s="59" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="M95" s="59" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="N95" s="59" t="s">
         <v>19</v>
@@ -6116,14 +6120,14 @@
         <v>14</v>
       </c>
       <c r="P95" s="59" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="Q95" s="61"/>
     </row>
-    <row r="96" spans="1:17" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:17" ht="12" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="70"/>
       <c r="B96" s="71" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C96" s="71"/>
       <c r="D96" s="71"/>
@@ -6132,7 +6136,7 @@
         <v>43</v>
       </c>
       <c r="G96" s="71" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H96" s="72" t="s">
         <v>1</v>
@@ -6140,13 +6144,13 @@
       <c r="I96" s="20"/>
       <c r="J96" s="62"/>
       <c r="K96" s="59" t="s">
+        <v>309</v>
+      </c>
+      <c r="L96" s="59" t="s">
+        <v>255</v>
+      </c>
+      <c r="M96" s="59" t="s">
         <v>310</v>
-      </c>
-      <c r="L96" s="59" t="s">
-        <v>256</v>
-      </c>
-      <c r="M96" s="59" t="s">
-        <v>311</v>
       </c>
       <c r="N96" s="59" t="s">
         <v>13</v>
@@ -6155,11 +6159,11 @@
         <v>14</v>
       </c>
       <c r="P96" s="59" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="Q96" s="61"/>
     </row>
-    <row r="97" spans="1:17" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:17" ht="12" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A97" s="48"/>
       <c r="B97" s="49"/>
       <c r="C97" s="49"/>
@@ -6171,13 +6175,13 @@
       <c r="I97" s="15"/>
       <c r="J97" s="62"/>
       <c r="K97" s="59" t="s">
+        <v>313</v>
+      </c>
+      <c r="L97" s="59" t="s">
         <v>314</v>
       </c>
-      <c r="L97" s="59" t="s">
+      <c r="M97" s="59" t="s">
         <v>315</v>
-      </c>
-      <c r="M97" s="59" t="s">
-        <v>316</v>
       </c>
       <c r="N97" s="59" t="s">
         <v>13</v>
@@ -6186,22 +6190,22 @@
         <v>14</v>
       </c>
       <c r="P97" s="59" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="Q97" s="61"/>
     </row>
-    <row r="98" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:17" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="53" t="s">
+        <v>323</v>
+      </c>
+      <c r="B98" s="56" t="s">
         <v>324</v>
       </c>
-      <c r="B98" s="56" t="s">
+      <c r="C98" s="56" t="s">
+        <v>66</v>
+      </c>
+      <c r="D98" s="56" t="s">
         <v>325</v>
-      </c>
-      <c r="C98" s="56" t="s">
-        <v>67</v>
-      </c>
-      <c r="D98" s="56" t="s">
-        <v>326</v>
       </c>
       <c r="E98" s="56" t="s">
         <v>13</v>
@@ -6210,7 +6214,7 @@
         <v>14</v>
       </c>
       <c r="G98" s="56" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H98" s="26">
         <v>4701</v>
@@ -6218,13 +6222,13 @@
       <c r="I98" s="20"/>
       <c r="J98" s="62"/>
       <c r="K98" s="59" t="s">
+        <v>317</v>
+      </c>
+      <c r="L98" s="59" t="s">
+        <v>220</v>
+      </c>
+      <c r="M98" s="59" t="s">
         <v>318</v>
-      </c>
-      <c r="L98" s="59" t="s">
-        <v>221</v>
-      </c>
-      <c r="M98" s="59" t="s">
-        <v>319</v>
       </c>
       <c r="N98" s="59" t="s">
         <v>13</v>
@@ -6233,20 +6237,20 @@
         <v>14</v>
       </c>
       <c r="P98" s="59" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="Q98" s="61"/>
     </row>
-    <row r="99" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:17" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="62"/>
       <c r="B99" s="59" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C99" s="59" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D99" s="59" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E99" s="59" t="s">
         <v>19</v>
@@ -6255,19 +6259,19 @@
         <v>14</v>
       </c>
       <c r="G99" s="59" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H99" s="61"/>
       <c r="I99" s="20"/>
       <c r="J99" s="62"/>
       <c r="K99" s="59" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="L99" s="59" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="M99" s="59" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="N99" s="59" t="s">
         <v>19</v>
@@ -6276,16 +6280,16 @@
         <v>26</v>
       </c>
       <c r="P99" s="59" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Q99" s="61"/>
     </row>
-    <row r="100" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:17" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="62" t="s">
         <v>1</v>
       </c>
       <c r="B100" s="59" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C100" s="59" t="s">
         <v>1</v>
@@ -6300,7 +6304,7 @@
         <v>14</v>
       </c>
       <c r="G100" s="59" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H100" s="61" t="s">
         <v>1</v>
@@ -6308,13 +6312,13 @@
       <c r="I100" s="20"/>
       <c r="J100" s="62"/>
       <c r="K100" s="59" t="s">
+        <v>321</v>
+      </c>
+      <c r="L100" s="59" t="s">
         <v>322</v>
       </c>
-      <c r="L100" s="59" t="s">
-        <v>323</v>
-      </c>
       <c r="M100" s="59" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="N100" s="59" t="s">
         <v>19</v>
@@ -6323,14 +6327,14 @@
         <v>26</v>
       </c>
       <c r="P100" s="59" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Q100" s="61"/>
     </row>
-    <row r="101" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:17" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="62"/>
       <c r="B101" s="59" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C101" s="59"/>
       <c r="D101" s="59"/>
@@ -6339,19 +6343,19 @@
         <v>37</v>
       </c>
       <c r="G101" s="59" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="H101" s="61"/>
       <c r="I101" s="36"/>
       <c r="J101" s="62"/>
       <c r="K101" s="59" t="s">
+        <v>326</v>
+      </c>
+      <c r="L101" s="59" t="s">
         <v>327</v>
       </c>
-      <c r="L101" s="59" t="s">
-        <v>328</v>
-      </c>
       <c r="M101" s="59" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="N101" s="59" t="s">
         <v>19</v>
@@ -6364,10 +6368,10 @@
       </c>
       <c r="Q101" s="61"/>
     </row>
-    <row r="102" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:17" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="62"/>
       <c r="B102" s="59" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C102" s="59"/>
       <c r="D102" s="59"/>
@@ -6376,13 +6380,13 @@
         <v>37</v>
       </c>
       <c r="G102" s="59" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="H102" s="61"/>
       <c r="I102" s="20"/>
       <c r="J102" s="62"/>
       <c r="K102" s="59" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="L102" s="59"/>
       <c r="M102" s="59"/>
@@ -6393,10 +6397,10 @@
       </c>
       <c r="Q102" s="61"/>
     </row>
-    <row r="103" spans="1:17" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:17" ht="12" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A103" s="62"/>
       <c r="B103" s="59" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C103" s="59"/>
       <c r="D103" s="59"/>
@@ -6405,13 +6409,13 @@
         <v>43</v>
       </c>
       <c r="G103" s="59" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H103" s="61"/>
       <c r="I103" s="20"/>
       <c r="J103" s="70"/>
       <c r="K103" s="71" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="L103" s="71" t="s">
         <v>1</v>
@@ -6430,10 +6434,10 @@
       </c>
       <c r="Q103" s="72"/>
     </row>
-    <row r="104" spans="1:17" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:17" ht="12" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="70"/>
       <c r="B104" s="71" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C104" s="71"/>
       <c r="D104" s="71"/>
@@ -6442,7 +6446,7 @@
         <v>43</v>
       </c>
       <c r="G104" s="71" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H104" s="72"/>
       <c r="I104" s="20"/>
@@ -6455,7 +6459,7 @@
       <c r="P104" s="49"/>
       <c r="Q104" s="52"/>
     </row>
-    <row r="105" spans="1:17" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:17" ht="12" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A105" s="91"/>
       <c r="B105" s="80"/>
       <c r="C105" s="80"/>
@@ -6466,7 +6470,7 @@
       <c r="H105" s="80"/>
       <c r="I105" s="20"/>
       <c r="J105" s="53" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="K105" s="56">
         <v>989</v>
@@ -6488,12 +6492,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:17" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="53" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B106" s="56" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C106" s="56"/>
       <c r="D106" s="56"/>
@@ -6502,7 +6506,7 @@
         <v>14</v>
       </c>
       <c r="G106" s="56" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H106" s="54"/>
       <c r="I106" s="20"/>
@@ -6510,13 +6514,13 @@
         <v>1</v>
       </c>
       <c r="K106" s="59" t="s">
+        <v>339</v>
+      </c>
+      <c r="L106" s="59" t="s">
         <v>340</v>
       </c>
-      <c r="L106" s="59" t="s">
-        <v>341</v>
-      </c>
       <c r="M106" s="59" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="N106" s="59" t="s">
         <v>19</v>
@@ -6529,10 +6533,10 @@
       </c>
       <c r="Q106" s="61"/>
     </row>
-    <row r="107" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:17" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="62"/>
       <c r="B107" s="59" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C107" s="59"/>
       <c r="D107" s="59"/>
@@ -6541,7 +6545,7 @@
         <v>14</v>
       </c>
       <c r="G107" s="59" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H107" s="61" t="s">
         <v>1</v>
@@ -6549,13 +6553,13 @@
       <c r="I107" s="20"/>
       <c r="J107" s="62"/>
       <c r="K107" s="59" t="s">
+        <v>342</v>
+      </c>
+      <c r="L107" s="59" t="s">
         <v>343</v>
       </c>
-      <c r="L107" s="59" t="s">
+      <c r="M107" s="59" t="s">
         <v>344</v>
-      </c>
-      <c r="M107" s="59" t="s">
-        <v>345</v>
       </c>
       <c r="N107" s="59" t="s">
         <v>19</v>
@@ -6570,10 +6574,10 @@
         <v>4543</v>
       </c>
     </row>
-    <row r="108" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:17" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="62"/>
       <c r="B108" s="59" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C108" s="59"/>
       <c r="D108" s="59"/>
@@ -6582,19 +6586,19 @@
         <v>14</v>
       </c>
       <c r="G108" s="59" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H108" s="61"/>
       <c r="I108" s="20"/>
       <c r="J108" s="62"/>
       <c r="K108" s="59" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="L108" s="59" t="s">
         <v>39</v>
       </c>
       <c r="M108" s="59" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="N108" s="59" t="s">
         <v>13</v>
@@ -6603,20 +6607,20 @@
         <v>14</v>
       </c>
       <c r="P108" s="59" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="Q108" s="61"/>
     </row>
-    <row r="109" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:17" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="62"/>
       <c r="B109" s="59" t="s">
+        <v>354</v>
+      </c>
+      <c r="C109" s="59" t="s">
         <v>355</v>
       </c>
-      <c r="C109" s="59" t="s">
-        <v>356</v>
-      </c>
       <c r="D109" s="59" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E109" s="59" t="s">
         <v>13</v>
@@ -6625,19 +6629,19 @@
         <v>14</v>
       </c>
       <c r="G109" s="59" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H109" s="61"/>
       <c r="I109" s="20"/>
       <c r="J109" s="62"/>
       <c r="K109" s="59" t="s">
+        <v>348</v>
+      </c>
+      <c r="L109" s="59" t="s">
+        <v>52</v>
+      </c>
+      <c r="M109" s="59" t="s">
         <v>349</v>
-      </c>
-      <c r="L109" s="59" t="s">
-        <v>53</v>
-      </c>
-      <c r="M109" s="59" t="s">
-        <v>350</v>
       </c>
       <c r="N109" s="59" t="s">
         <v>13</v>
@@ -6646,20 +6650,20 @@
         <v>14</v>
       </c>
       <c r="P109" s="59" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="Q109" s="61"/>
     </row>
-    <row r="110" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:17" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="62"/>
       <c r="B110" s="59" t="s">
+        <v>357</v>
+      </c>
+      <c r="C110" s="59" t="s">
         <v>358</v>
       </c>
-      <c r="C110" s="59" t="s">
-        <v>359</v>
-      </c>
       <c r="D110" s="59" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E110" s="59" t="s">
         <v>19</v>
@@ -6668,7 +6672,7 @@
         <v>14</v>
       </c>
       <c r="G110" s="59" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H110" s="61">
         <v>4542</v>
@@ -6676,13 +6680,13 @@
       <c r="I110" s="20"/>
       <c r="J110" s="62"/>
       <c r="K110" s="59" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="L110" s="59" t="s">
         <v>29</v>
       </c>
       <c r="M110" s="59" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="N110" s="59" t="s">
         <v>19</v>
@@ -6695,16 +6699,16 @@
       </c>
       <c r="Q110" s="61"/>
     </row>
-    <row r="111" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:17" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="62"/>
       <c r="B111" s="31" t="s">
+        <v>360</v>
+      </c>
+      <c r="C111" s="31" t="s">
         <v>361</v>
       </c>
-      <c r="C111" s="31" t="s">
-        <v>362</v>
-      </c>
       <c r="D111" s="31" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E111" s="31" t="s">
         <v>19</v>
@@ -6713,19 +6717,19 @@
         <v>14</v>
       </c>
       <c r="G111" s="31" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H111" s="32"/>
       <c r="I111" s="20"/>
       <c r="J111" s="62"/>
       <c r="K111" s="59" t="s">
+        <v>351</v>
+      </c>
+      <c r="L111" s="59" t="s">
         <v>352</v>
       </c>
-      <c r="L111" s="59" t="s">
-        <v>353</v>
-      </c>
       <c r="M111" s="59" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="N111" s="59" t="s">
         <v>13</v>
@@ -6734,20 +6738,20 @@
         <v>14</v>
       </c>
       <c r="P111" s="59" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="Q111" s="61"/>
     </row>
-    <row r="112" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:17" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="62"/>
       <c r="B112" s="31" t="s">
+        <v>363</v>
+      </c>
+      <c r="C112" s="31" t="s">
         <v>364</v>
       </c>
-      <c r="C112" s="31" t="s">
-        <v>365</v>
-      </c>
       <c r="D112" s="31" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E112" s="31" t="s">
         <v>13</v>
@@ -6756,13 +6760,13 @@
         <v>26</v>
       </c>
       <c r="G112" s="31" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H112" s="32"/>
       <c r="I112" s="20"/>
       <c r="J112" s="62"/>
       <c r="K112" s="59" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="L112" s="59"/>
       <c r="M112" s="59"/>
@@ -6771,20 +6775,20 @@
         <v>14</v>
       </c>
       <c r="P112" s="59" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Q112" s="61"/>
     </row>
-    <row r="113" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:17" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="62"/>
       <c r="B113" s="31" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C113" s="31" t="s">
         <v>36</v>
       </c>
       <c r="D113" s="31" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E113" s="31" t="s">
         <v>13</v>
@@ -6793,13 +6797,13 @@
         <v>14</v>
       </c>
       <c r="G113" s="31" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H113" s="32"/>
       <c r="I113" s="20"/>
       <c r="J113" s="62"/>
       <c r="K113" s="59" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="L113" s="59"/>
       <c r="M113" s="59"/>
@@ -6808,20 +6812,20 @@
         <v>14</v>
       </c>
       <c r="P113" s="59" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Q113" s="61"/>
     </row>
-    <row r="114" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:17" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="62"/>
       <c r="B114" s="31" t="s">
+        <v>367</v>
+      </c>
+      <c r="C114" s="31" t="s">
         <v>368</v>
       </c>
-      <c r="C114" s="31" t="s">
-        <v>369</v>
-      </c>
       <c r="D114" s="31" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E114" s="31" t="s">
         <v>19</v>
@@ -6830,13 +6834,13 @@
         <v>26</v>
       </c>
       <c r="G114" s="31" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H114" s="32"/>
       <c r="I114" s="36"/>
       <c r="J114" s="62"/>
       <c r="K114" s="59" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="L114" s="59"/>
       <c r="M114" s="59"/>
@@ -6849,16 +6853,16 @@
       </c>
       <c r="Q114" s="61"/>
     </row>
-    <row r="115" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:17" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="62"/>
       <c r="B115" s="31" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C115" s="31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D115" s="31" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E115" s="31" t="s">
         <v>19</v>
@@ -6867,7 +6871,7 @@
         <v>37</v>
       </c>
       <c r="G115" s="31" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H115" s="32"/>
       <c r="I115" s="36"/>
@@ -6875,7 +6879,7 @@
         <v>1</v>
       </c>
       <c r="K115" s="59" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="L115" s="59"/>
       <c r="M115" s="59"/>
@@ -6888,25 +6892,25 @@
       </c>
       <c r="Q115" s="61"/>
     </row>
-    <row r="116" spans="1:17" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:17" ht="12" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A116" s="62"/>
       <c r="B116" s="59" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C116" s="59" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D116" s="59" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E116" s="59" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F116" s="31" t="s">
         <v>26</v>
       </c>
       <c r="G116" s="59" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H116" s="61"/>
       <c r="I116" s="36"/>
@@ -6919,16 +6923,16 @@
       <c r="P116" s="71"/>
       <c r="Q116" s="72"/>
     </row>
-    <row r="117" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:17" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="62"/>
       <c r="B117" s="59" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C117" s="59" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D117" s="59" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E117" s="59" t="s">
         <v>13</v>
@@ -6937,7 +6941,7 @@
         <v>37</v>
       </c>
       <c r="G117" s="59" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H117" s="61"/>
       <c r="I117" s="59"/>
@@ -6950,16 +6954,16 @@
       <c r="P117" s="80"/>
       <c r="Q117" s="81"/>
     </row>
-    <row r="118" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:17" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="62"/>
       <c r="B118" s="59" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C118" s="59" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D118" s="59" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E118" s="59" t="s">
         <v>13</v>
@@ -6968,7 +6972,7 @@
         <v>37</v>
       </c>
       <c r="G118" s="59" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H118" s="61"/>
       <c r="I118" s="36"/>
@@ -6981,16 +6985,16 @@
       <c r="P118" s="59"/>
       <c r="Q118" s="61"/>
     </row>
-    <row r="119" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:17" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A119" s="70"/>
       <c r="B119" s="71" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C119" s="71" t="s">
         <v>36</v>
       </c>
       <c r="D119" s="71" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E119" s="71" t="s">
         <v>13</v>
@@ -6999,7 +7003,7 @@
         <v>37</v>
       </c>
       <c r="G119" s="71" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H119" s="72"/>
       <c r="I119" s="36"/>
@@ -7012,7 +7016,7 @@
       <c r="P119" s="59"/>
       <c r="Q119" s="61"/>
     </row>
-    <row r="120" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:17" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="94"/>
       <c r="B120" s="95"/>
       <c r="C120" s="95"/>
@@ -7031,7 +7035,7 @@
       <c r="P120" s="59"/>
       <c r="Q120" s="61"/>
     </row>
-    <row r="121" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:17" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="96"/>
       <c r="B121" s="97"/>
       <c r="C121" s="97"/>
@@ -7050,7 +7054,7 @@
       <c r="P121" s="59"/>
       <c r="Q121" s="61"/>
     </row>
-    <row r="122" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:17" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="96"/>
       <c r="B122" s="97"/>
       <c r="C122" s="97"/>
@@ -7069,7 +7073,7 @@
       <c r="P122" s="13"/>
       <c r="Q122" s="16"/>
     </row>
-    <row r="123" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:17" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="96"/>
       <c r="B123" s="97"/>
       <c r="C123" s="97"/>
@@ -7088,7 +7092,7 @@
       <c r="P123" s="59"/>
       <c r="Q123" s="61"/>
     </row>
-    <row r="124" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:17" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="96"/>
       <c r="B124" s="97"/>
       <c r="C124" s="97"/>
@@ -7107,7 +7111,7 @@
       <c r="P124" s="97"/>
       <c r="Q124" s="98"/>
     </row>
-    <row r="125" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:17" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="96"/>
       <c r="B125" s="97"/>
       <c r="C125" s="97"/>
@@ -7126,7 +7130,7 @@
       <c r="P125" s="97"/>
       <c r="Q125" s="98"/>
     </row>
-    <row r="126" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:17" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="96"/>
       <c r="B126" s="97"/>
       <c r="C126" s="97"/>
@@ -7145,7 +7149,7 @@
       <c r="P126" s="97"/>
       <c r="Q126" s="98"/>
     </row>
-    <row r="127" spans="1:17" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:17" ht="12" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A127" s="99"/>
       <c r="B127" s="100"/>
       <c r="C127" s="100"/>
@@ -7164,7 +7168,7 @@
       <c r="P127" s="97"/>
       <c r="Q127" s="98"/>
     </row>
-    <row r="128" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:17" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I128" s="97"/>
       <c r="J128" s="97"/>
       <c r="K128" s="97"/>
@@ -7175,7 +7179,7 @@
       <c r="P128" s="97"/>
       <c r="Q128" s="98"/>
     </row>
-    <row r="129" spans="9:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="9:17" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I129" s="97"/>
       <c r="J129" s="97"/>
       <c r="K129" s="97"/>
@@ -7186,7 +7190,7 @@
       <c r="P129" s="97"/>
       <c r="Q129" s="98"/>
     </row>
-    <row r="130" spans="9:17" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="9:17" ht="12" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I130" s="100"/>
       <c r="J130" s="100"/>
       <c r="K130" s="100"/>
@@ -7197,23 +7201,30 @@
       <c r="P130" s="100"/>
       <c r="Q130" s="101"/>
     </row>
-    <row r="131" spans="9:17" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="132" spans="9:17" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="133" spans="9:17" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="134" spans="9:17" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="135" spans="9:17" ht="11.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="136" spans="9:17" ht="11.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="137" spans="9:17" ht="11.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="138" spans="9:17" ht="11.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="139" spans="9:17" ht="11.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="140" spans="9:17" ht="11.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="141" spans="9:17" ht="11.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="142" spans="9:17" ht="11.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="143" spans="9:17" ht="11.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="144" spans="9:17" ht="11.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="145" ht="11.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="146" ht="11.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="131" spans="9:17" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="132" spans="9:17" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="133" spans="9:17" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="134" spans="9:17" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="135" spans="9:17" ht="11.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="136" spans="9:17" ht="11.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="137" spans="9:17" ht="11.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="138" spans="9:17" ht="11.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="139" spans="9:17" ht="11.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="140" spans="9:17" ht="11.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="141" spans="9:17" ht="11.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="142" spans="9:17" ht="11.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="143" spans="9:17" ht="11.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="144" spans="9:17" ht="11.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="145" ht="11.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="146" ht="11.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
+  <autoFilter ref="A1:Q146" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="15">
+      <filters>
+        <filter val="9/14"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.51180555555555496" right="0.51180555555555496" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>

--- a/data/RawData/ObsData/2009-2022/2018/04-09-2018.xlsx
+++ b/data/RawData/ObsData/2009-2022/2018/04-09-2018.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aponchon\Nextcloud\Aurore Ponchon\Projects\Golden Lion Tamarins Brazil\Analysis\GoldenLionTamarins\data\RawData\ObsData\2009-2022\2018\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aponchon\Nextcloud\Aurore Ponchon\Projects\GoldenLionTamarinsBrazil\Analysis\GoldenLionTamarins\data\RawData\ObsData\2009-2022\2018\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1734D4AB-0478-4819-9343-65964C576EC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{810E5A94-9470-470B-8850-5146A09F0A30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="675" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2505,10 +2505,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:Q146"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A136" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="P147" sqref="P147"/>
     </sheetView>
   </sheetViews>
@@ -2557,7 +2556,7 @@
       <c r="P1" s="3"/>
       <c r="Q1" s="4"/>
     </row>
-    <row r="2" spans="1:17" ht="12" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5"/>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
@@ -2576,7 +2575,7 @@
       <c r="P2" s="7"/>
       <c r="Q2" s="8"/>
     </row>
-    <row r="3" spans="1:17" ht="12" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
         <v>2</v>
       </c>
@@ -2599,7 +2598,7 @@
       <c r="P3" s="13"/>
       <c r="Q3" s="16"/>
     </row>
-    <row r="4" spans="1:17" ht="12" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="17" t="s">
         <v>3</v>
       </c>
@@ -2650,7 +2649,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="21" t="s">
         <v>11</v>
       </c>
@@ -2699,7 +2698,7 @@
       </c>
       <c r="Q5" s="26"/>
     </row>
-    <row r="6" spans="1:17" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="27" t="s">
         <v>20</v>
       </c>
@@ -2748,7 +2747,7 @@
         <v>4407</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="27" t="s">
         <v>24</v>
       </c>
@@ -2795,7 +2794,7 @@
       </c>
       <c r="Q7" s="32"/>
     </row>
-    <row r="8" spans="1:17" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="27" t="s">
         <v>31</v>
       </c>
@@ -2842,7 +2841,7 @@
       </c>
       <c r="Q8" s="32"/>
     </row>
-    <row r="9" spans="1:17" ht="12" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="27" t="s">
         <v>16</v>
       </c>
@@ -2887,7 +2886,7 @@
       </c>
       <c r="Q9" s="35"/>
     </row>
-    <row r="10" spans="1:17" ht="12" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="27" t="s">
         <v>16</v>
       </c>
@@ -2920,7 +2919,7 @@
       <c r="P10" s="38"/>
       <c r="Q10" s="39"/>
     </row>
-    <row r="11" spans="1:17" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="27" t="s">
         <v>16</v>
       </c>
@@ -3016,7 +3015,7 @@
         <v>4604</v>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="27" t="s">
         <v>20</v>
       </c>
@@ -3059,7 +3058,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:17" ht="12" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="42" t="s">
         <v>16</v>
       </c>
@@ -3102,7 +3101,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:17" ht="12" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="48"/>
       <c r="B15" s="49"/>
       <c r="C15" s="49"/>
@@ -3121,7 +3120,7 @@
       <c r="P15" s="46"/>
       <c r="Q15" s="47"/>
     </row>
-    <row r="16" spans="1:17" ht="12" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="53" t="s">
         <v>51</v>
       </c>
@@ -3154,7 +3153,7 @@
       <c r="P16" s="49"/>
       <c r="Q16" s="52"/>
     </row>
-    <row r="17" spans="1:17" ht="12" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="27" t="s">
         <v>16</v>
       </c>
@@ -3191,7 +3190,7 @@
       <c r="P17" s="10"/>
       <c r="Q17" s="11"/>
     </row>
-    <row r="18" spans="1:17" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="27" t="s">
         <v>16</v>
       </c>
@@ -3240,7 +3239,7 @@
         <v>4909</v>
       </c>
     </row>
-    <row r="19" spans="1:17" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="27" t="s">
         <v>16</v>
       </c>
@@ -3285,7 +3284,7 @@
       </c>
       <c r="Q19" s="60"/>
     </row>
-    <row r="20" spans="1:17" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="27" t="s">
         <v>16</v>
       </c>
@@ -3328,7 +3327,7 @@
       <c r="P20" s="59"/>
       <c r="Q20" s="61"/>
     </row>
-    <row r="21" spans="1:17" ht="12" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:17" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="27" t="s">
         <v>16</v>
       </c>
@@ -3359,7 +3358,7 @@
       <c r="P21" s="65"/>
       <c r="Q21" s="66"/>
     </row>
-    <row r="22" spans="1:17" ht="12" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:17" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="42"/>
       <c r="B22" s="43"/>
       <c r="C22" s="43"/>
@@ -3392,7 +3391,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:17" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="111"/>
       <c r="B23" s="112"/>
       <c r="C23" s="112"/>
@@ -3411,7 +3410,7 @@
       <c r="P23" s="31"/>
       <c r="Q23" s="31"/>
     </row>
-    <row r="24" spans="1:17" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="62"/>
       <c r="B24" s="59"/>
       <c r="C24" s="59"/>
@@ -3430,7 +3429,7 @@
       <c r="P24" s="31"/>
       <c r="Q24" s="31"/>
     </row>
-    <row r="25" spans="1:17" ht="12" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:17" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="70" t="s">
         <v>1</v>
       </c>
@@ -3450,7 +3449,7 @@
       <c r="P25" s="105"/>
       <c r="Q25" s="106"/>
     </row>
-    <row r="26" spans="1:17" ht="12" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:17" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="73" t="s">
         <v>53</v>
       </c>
@@ -3485,7 +3484,7 @@
       </c>
       <c r="Q26" s="54"/>
     </row>
-    <row r="27" spans="1:17" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="53" t="s">
         <v>75</v>
       </c>
@@ -3532,7 +3531,7 @@
       </c>
       <c r="Q27" s="61"/>
     </row>
-    <row r="28" spans="1:17" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="62" t="s">
         <v>1</v>
       </c>
@@ -3577,7 +3576,7 @@
       </c>
       <c r="Q28" s="61"/>
     </row>
-    <row r="29" spans="1:17" ht="12" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:17" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="62" t="s">
         <v>87</v>
       </c>
@@ -3626,7 +3625,7 @@
         <v>4045</v>
       </c>
     </row>
-    <row r="30" spans="1:17" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="74"/>
       <c r="B30" s="75" t="s">
         <v>91</v>
@@ -3653,7 +3652,7 @@
       <c r="P30" s="40"/>
       <c r="Q30" s="40"/>
     </row>
-    <row r="31" spans="1:17" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="62"/>
       <c r="B31" s="59" t="s">
         <v>96</v>
@@ -3678,7 +3677,7 @@
       <c r="P31" s="40"/>
       <c r="Q31" s="40"/>
     </row>
-    <row r="32" spans="1:17" ht="12" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="48"/>
       <c r="B32" s="49" t="s">
         <v>97</v>
@@ -3703,7 +3702,7 @@
       <c r="P32" s="40"/>
       <c r="Q32" s="40"/>
     </row>
-    <row r="33" spans="1:17" ht="12" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:17" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="48"/>
       <c r="B33" s="49" t="s">
         <v>103</v>
@@ -3744,7 +3743,7 @@
         <v>4822</v>
       </c>
     </row>
-    <row r="34" spans="1:17" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="53" t="s">
         <v>104</v>
       </c>
@@ -3779,7 +3778,7 @@
       <c r="P34" s="49"/>
       <c r="Q34" s="52"/>
     </row>
-    <row r="35" spans="1:17" ht="12" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:17" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="62"/>
       <c r="B35" s="59" t="s">
         <v>107</v>
@@ -3826,7 +3825,7 @@
       </c>
       <c r="Q35" s="72"/>
     </row>
-    <row r="36" spans="1:17" ht="12" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:17" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="62"/>
       <c r="B36" s="59" t="s">
         <v>110</v>
@@ -3859,7 +3858,7 @@
       <c r="P36" s="71"/>
       <c r="Q36" s="72"/>
     </row>
-    <row r="37" spans="1:17" ht="12" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:17" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="62" t="s">
         <v>1</v>
       </c>
@@ -3892,7 +3891,7 @@
       <c r="P37" s="49"/>
       <c r="Q37" s="52"/>
     </row>
-    <row r="38" spans="1:17" ht="12" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:17" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="62"/>
       <c r="B38" s="59" t="s">
         <v>122</v>
@@ -3925,7 +3924,7 @@
       <c r="P38" s="13"/>
       <c r="Q38" s="16"/>
     </row>
-    <row r="39" spans="1:17" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="62"/>
       <c r="B39" s="59" t="s">
         <v>126</v>
@@ -3972,7 +3971,7 @@
         <v>4995</v>
       </c>
     </row>
-    <row r="40" spans="1:17" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="62"/>
       <c r="B40" s="59" t="s">
         <v>128</v>
@@ -4019,7 +4018,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="41" spans="1:17" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="62"/>
       <c r="B41" s="59" t="s">
         <v>129</v>
@@ -4064,7 +4063,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="42" spans="1:17" ht="12" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:17" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="62"/>
       <c r="B42" s="59" t="s">
         <v>132</v>
@@ -4109,7 +4108,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="43" spans="1:17" ht="12" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:17" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="62"/>
       <c r="B43" s="75" t="s">
         <v>138</v>
@@ -4134,7 +4133,7 @@
       <c r="P43" s="49"/>
       <c r="Q43" s="52"/>
     </row>
-    <row r="44" spans="1:17" ht="12" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:17" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="62"/>
       <c r="B44" s="59" t="s">
         <v>142</v>
@@ -4161,7 +4160,7 @@
       <c r="P44" s="10"/>
       <c r="Q44" s="11"/>
     </row>
-    <row r="45" spans="1:17" ht="12" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:17" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="70"/>
       <c r="B45" s="71" t="s">
         <v>146</v>
@@ -4202,7 +4201,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:17" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="62"/>
       <c r="B46" s="59" t="s">
         <v>151</v>
@@ -4241,7 +4240,7 @@
         <v>4058</v>
       </c>
     </row>
-    <row r="47" spans="1:17" ht="12" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:17" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="70"/>
       <c r="B47" s="71" t="s">
         <v>155</v>
@@ -4280,7 +4279,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:17" ht="12" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:17" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="48"/>
       <c r="B48" s="49"/>
       <c r="C48" s="49"/>
@@ -4313,7 +4312,7 @@
         <v>4444</v>
       </c>
     </row>
-    <row r="49" spans="1:17" ht="12" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:17" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="73" t="s">
         <v>159</v>
       </c>
@@ -4346,7 +4345,7 @@
       </c>
       <c r="Q49" s="61"/>
     </row>
-    <row r="50" spans="1:17" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="53" t="s">
         <v>161</v>
       </c>
@@ -4393,7 +4392,7 @@
       </c>
       <c r="Q50" s="61"/>
     </row>
-    <row r="51" spans="1:17" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="62"/>
       <c r="B51" s="59" t="s">
         <v>165</v>
@@ -4440,7 +4439,7 @@
       </c>
       <c r="Q51" s="61"/>
     </row>
-    <row r="52" spans="1:17" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="62"/>
       <c r="B52" s="59" t="s">
         <v>168</v>
@@ -4485,7 +4484,7 @@
       </c>
       <c r="Q52" s="61"/>
     </row>
-    <row r="53" spans="1:17" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="62"/>
       <c r="B53" s="59" t="s">
         <v>171</v>
@@ -4530,7 +4529,7 @@
       </c>
       <c r="Q53" s="61"/>
     </row>
-    <row r="54" spans="1:17" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="62"/>
       <c r="B54" s="59" t="s">
         <v>173</v>
@@ -4567,7 +4566,7 @@
       </c>
       <c r="Q54" s="61"/>
     </row>
-    <row r="55" spans="1:17" ht="12" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:17" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="62"/>
       <c r="B55" s="59" t="s">
         <v>175</v>
@@ -4604,7 +4603,7 @@
       </c>
       <c r="Q55" s="72"/>
     </row>
-    <row r="56" spans="1:17" ht="12" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:17" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="62" t="s">
         <v>1</v>
       </c>
@@ -4637,7 +4636,7 @@
       <c r="P56" s="80"/>
       <c r="Q56" s="81"/>
     </row>
-    <row r="57" spans="1:17" ht="12" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:17" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="62"/>
       <c r="B57" s="59" t="s">
         <v>181</v>
@@ -4672,7 +4671,7 @@
       <c r="P57" s="13"/>
       <c r="Q57" s="16"/>
     </row>
-    <row r="58" spans="1:17" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="62"/>
       <c r="B58" s="59" t="s">
         <v>184</v>
@@ -4719,7 +4718,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:17" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="62"/>
       <c r="B59" s="59" t="s">
         <v>188</v>
@@ -4756,7 +4755,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:17" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="62" t="s">
         <v>1</v>
       </c>
@@ -4801,7 +4800,7 @@
         <v>4842</v>
       </c>
     </row>
-    <row r="61" spans="1:17" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="62"/>
       <c r="B61" s="59" t="s">
         <v>196</v>
@@ -4844,7 +4843,7 @@
       </c>
       <c r="Q61" s="61"/>
     </row>
-    <row r="62" spans="1:17" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="62"/>
       <c r="B62" s="59" t="s">
         <v>199</v>
@@ -4879,7 +4878,7 @@
       </c>
       <c r="Q62" s="61"/>
     </row>
-    <row r="63" spans="1:17" ht="12" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:17" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="83"/>
       <c r="B63" s="13" t="s">
         <v>202</v>
@@ -4922,7 +4921,7 @@
       </c>
       <c r="Q63" s="61"/>
     </row>
-    <row r="64" spans="1:17" ht="12" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:17" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="17"/>
       <c r="B64" s="18"/>
       <c r="C64" s="18"/>
@@ -4953,7 +4952,7 @@
       </c>
       <c r="Q64" s="61"/>
     </row>
-    <row r="65" spans="1:17" ht="12" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:17" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="86"/>
       <c r="B65" s="10"/>
       <c r="C65" s="87"/>
@@ -4986,7 +4985,7 @@
       </c>
       <c r="Q65" s="61"/>
     </row>
-    <row r="66" spans="1:17" ht="12" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:17" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="73" t="s">
         <v>205</v>
       </c>
@@ -5021,7 +5020,7 @@
       </c>
       <c r="Q66" s="72"/>
     </row>
-    <row r="67" spans="1:17" ht="12" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:17" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="17" t="s">
         <v>3</v>
       </c>
@@ -5056,7 +5055,7 @@
       <c r="P67" s="78"/>
       <c r="Q67" s="85"/>
     </row>
-    <row r="68" spans="1:17" ht="12" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:17" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="24" t="s">
         <v>211</v>
       </c>
@@ -5091,7 +5090,7 @@
       <c r="P68" s="56"/>
       <c r="Q68" s="54"/>
     </row>
-    <row r="69" spans="1:17" ht="12" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:17" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="30"/>
       <c r="B69" s="31" t="s">
         <v>218</v>
@@ -5126,7 +5125,7 @@
       <c r="P69" s="13"/>
       <c r="Q69" s="16"/>
     </row>
-    <row r="70" spans="1:17" ht="12" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:17" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="30"/>
       <c r="B70" s="31" t="s">
         <v>221</v>
@@ -5175,7 +5174,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="71" spans="1:17" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="30"/>
       <c r="B71" s="31" t="s">
         <v>226</v>
@@ -5220,7 +5219,7 @@
       <c r="P71" s="56"/>
       <c r="Q71" s="54"/>
     </row>
-    <row r="72" spans="1:17" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="30"/>
       <c r="B72" s="31" t="s">
         <v>231</v>
@@ -5263,7 +5262,7 @@
         <v>4737</v>
       </c>
     </row>
-    <row r="73" spans="1:17" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="30"/>
       <c r="B73" s="31" t="s">
         <v>235</v>
@@ -5300,7 +5299,7 @@
       </c>
       <c r="Q73" s="61"/>
     </row>
-    <row r="74" spans="1:17" ht="12" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:17" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="33"/>
       <c r="B74" s="34" t="s">
         <v>239</v>
@@ -5337,7 +5336,7 @@
       </c>
       <c r="Q74" s="61"/>
     </row>
-    <row r="75" spans="1:17" ht="12" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:17" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="91"/>
       <c r="B75" s="80"/>
       <c r="C75" s="80"/>
@@ -5362,7 +5361,7 @@
       </c>
       <c r="Q75" s="16"/>
     </row>
-    <row r="76" spans="1:17" ht="12" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:17" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="73" t="s">
         <v>243</v>
       </c>
@@ -5383,7 +5382,7 @@
       <c r="P76" s="71"/>
       <c r="Q76" s="72"/>
     </row>
-    <row r="77" spans="1:17" ht="12" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:17" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="24" t="s">
         <v>245</v>
       </c>
@@ -5418,7 +5417,7 @@
       <c r="P77" s="80"/>
       <c r="Q77" s="81"/>
     </row>
-    <row r="78" spans="1:17" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="30" t="s">
         <v>1</v>
       </c>
@@ -5467,7 +5466,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:17" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="30"/>
       <c r="B79" s="31" t="s">
         <v>254</v>
@@ -5510,7 +5509,7 @@
       <c r="P79" s="59"/>
       <c r="Q79" s="61"/>
     </row>
-    <row r="80" spans="1:17" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="30"/>
       <c r="B80" s="31" t="s">
         <v>261</v>
@@ -5557,7 +5556,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:17" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="30"/>
       <c r="B81" s="31" t="s">
         <v>268</v>
@@ -5600,7 +5599,7 @@
       </c>
       <c r="Q81" s="61"/>
     </row>
-    <row r="82" spans="1:17" ht="12" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:17" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="33"/>
       <c r="B82" s="34" t="s">
         <v>275</v>
@@ -5645,7 +5644,7 @@
       </c>
       <c r="Q82" s="61"/>
     </row>
-    <row r="83" spans="1:17" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="91"/>
       <c r="B83" s="80"/>
       <c r="C83" s="80"/>
@@ -5678,7 +5677,7 @@
         <v>4367</v>
       </c>
     </row>
-    <row r="84" spans="1:17" ht="12" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:17" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="92" t="s">
         <v>285</v>
       </c>
@@ -5711,7 +5710,7 @@
       </c>
       <c r="Q84" s="61"/>
     </row>
-    <row r="85" spans="1:17" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="53" t="s">
         <v>289</v>
       </c>
@@ -5758,7 +5757,7 @@
       </c>
       <c r="Q85" s="61"/>
     </row>
-    <row r="86" spans="1:17" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="62"/>
       <c r="B86" s="59" t="s">
         <v>294</v>
@@ -5801,7 +5800,7 @@
       </c>
       <c r="Q86" s="61"/>
     </row>
-    <row r="87" spans="1:17" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="62"/>
       <c r="B87" s="59" t="s">
         <v>297</v>
@@ -5838,7 +5837,7 @@
       </c>
       <c r="Q87" s="61"/>
     </row>
-    <row r="88" spans="1:17" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="62"/>
       <c r="B88" s="59" t="s">
         <v>297</v>
@@ -5869,7 +5868,7 @@
       </c>
       <c r="Q88" s="61"/>
     </row>
-    <row r="89" spans="1:17" ht="12" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:17" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A89" s="62"/>
       <c r="B89" s="59" t="s">
         <v>297</v>
@@ -5906,7 +5905,7 @@
       </c>
       <c r="Q89" s="72"/>
     </row>
-    <row r="90" spans="1:17" ht="12" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:17" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="62"/>
       <c r="B90" s="59" t="s">
         <v>297</v>
@@ -5931,7 +5930,7 @@
       <c r="P90" s="80"/>
       <c r="Q90" s="81"/>
     </row>
-    <row r="91" spans="1:17" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="62"/>
       <c r="B91" s="59" t="s">
         <v>303</v>
@@ -5970,7 +5969,7 @@
         <v>4556</v>
       </c>
     </row>
-    <row r="92" spans="1:17" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="62"/>
       <c r="B92" s="59" t="s">
         <v>305</v>
@@ -6009,7 +6008,7 @@
       </c>
       <c r="Q92" s="61"/>
     </row>
-    <row r="93" spans="1:17" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="62"/>
       <c r="B93" s="59" t="s">
         <v>307</v>
@@ -6050,7 +6049,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:17" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="62"/>
       <c r="B94" s="59" t="s">
         <v>312</v>
@@ -6087,7 +6086,7 @@
       </c>
       <c r="Q94" s="61"/>
     </row>
-    <row r="95" spans="1:17" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="62"/>
       <c r="B95" s="59" t="s">
         <v>316</v>
@@ -6124,7 +6123,7 @@
       </c>
       <c r="Q95" s="61"/>
     </row>
-    <row r="96" spans="1:17" ht="12" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:17" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="70"/>
       <c r="B96" s="71" t="s">
         <v>319</v>
@@ -6163,7 +6162,7 @@
       </c>
       <c r="Q96" s="61"/>
     </row>
-    <row r="97" spans="1:17" ht="12" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:17" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A97" s="48"/>
       <c r="B97" s="49"/>
       <c r="C97" s="49"/>
@@ -6194,7 +6193,7 @@
       </c>
       <c r="Q97" s="61"/>
     </row>
-    <row r="98" spans="1:17" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="53" t="s">
         <v>323</v>
       </c>
@@ -6241,7 +6240,7 @@
       </c>
       <c r="Q98" s="61"/>
     </row>
-    <row r="99" spans="1:17" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="62"/>
       <c r="B99" s="59" t="s">
         <v>328</v>
@@ -6284,7 +6283,7 @@
       </c>
       <c r="Q99" s="61"/>
     </row>
-    <row r="100" spans="1:17" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="62" t="s">
         <v>1</v>
       </c>
@@ -6331,7 +6330,7 @@
       </c>
       <c r="Q100" s="61"/>
     </row>
-    <row r="101" spans="1:17" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="62"/>
       <c r="B101" s="59" t="s">
         <v>334</v>
@@ -6368,7 +6367,7 @@
       </c>
       <c r="Q101" s="61"/>
     </row>
-    <row r="102" spans="1:17" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="62"/>
       <c r="B102" s="59" t="s">
         <v>336</v>
@@ -6397,7 +6396,7 @@
       </c>
       <c r="Q102" s="61"/>
     </row>
-    <row r="103" spans="1:17" ht="12" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:17" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A103" s="62"/>
       <c r="B103" s="59" t="s">
         <v>338</v>
@@ -6434,7 +6433,7 @@
       </c>
       <c r="Q103" s="72"/>
     </row>
-    <row r="104" spans="1:17" ht="12" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:17" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="70"/>
       <c r="B104" s="71" t="s">
         <v>341</v>
@@ -6459,7 +6458,7 @@
       <c r="P104" s="49"/>
       <c r="Q104" s="52"/>
     </row>
-    <row r="105" spans="1:17" ht="12" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:17" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A105" s="91"/>
       <c r="B105" s="80"/>
       <c r="C105" s="80"/>
@@ -6492,7 +6491,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:17" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="53" t="s">
         <v>346</v>
       </c>
@@ -6533,7 +6532,7 @@
       </c>
       <c r="Q106" s="61"/>
     </row>
-    <row r="107" spans="1:17" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="62"/>
       <c r="B107" s="59" t="s">
         <v>297</v>
@@ -6574,7 +6573,7 @@
         <v>4543</v>
       </c>
     </row>
-    <row r="108" spans="1:17" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="62"/>
       <c r="B108" s="59" t="s">
         <v>297</v>
@@ -6611,7 +6610,7 @@
       </c>
       <c r="Q108" s="61"/>
     </row>
-    <row r="109" spans="1:17" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="62"/>
       <c r="B109" s="59" t="s">
         <v>354</v>
@@ -6654,7 +6653,7 @@
       </c>
       <c r="Q109" s="61"/>
     </row>
-    <row r="110" spans="1:17" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="62"/>
       <c r="B110" s="59" t="s">
         <v>357</v>
@@ -6699,7 +6698,7 @@
       </c>
       <c r="Q110" s="61"/>
     </row>
-    <row r="111" spans="1:17" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="62"/>
       <c r="B111" s="31" t="s">
         <v>360</v>
@@ -6742,7 +6741,7 @@
       </c>
       <c r="Q111" s="61"/>
     </row>
-    <row r="112" spans="1:17" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="62"/>
       <c r="B112" s="31" t="s">
         <v>363</v>
@@ -6779,7 +6778,7 @@
       </c>
       <c r="Q112" s="61"/>
     </row>
-    <row r="113" spans="1:17" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="62"/>
       <c r="B113" s="31" t="s">
         <v>366</v>
@@ -6816,7 +6815,7 @@
       </c>
       <c r="Q113" s="61"/>
     </row>
-    <row r="114" spans="1:17" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="62"/>
       <c r="B114" s="31" t="s">
         <v>367</v>
@@ -6853,7 +6852,7 @@
       </c>
       <c r="Q114" s="61"/>
     </row>
-    <row r="115" spans="1:17" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="62"/>
       <c r="B115" s="31" t="s">
         <v>369</v>
@@ -6892,7 +6891,7 @@
       </c>
       <c r="Q115" s="61"/>
     </row>
-    <row r="116" spans="1:17" ht="12" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:17" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A116" s="62"/>
       <c r="B116" s="59" t="s">
         <v>370</v>
@@ -6923,7 +6922,7 @@
       <c r="P116" s="71"/>
       <c r="Q116" s="72"/>
     </row>
-    <row r="117" spans="1:17" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="62"/>
       <c r="B117" s="59" t="s">
         <v>371</v>
@@ -6954,7 +6953,7 @@
       <c r="P117" s="80"/>
       <c r="Q117" s="81"/>
     </row>
-    <row r="118" spans="1:17" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="62"/>
       <c r="B118" s="59" t="s">
         <v>372</v>
@@ -6985,7 +6984,7 @@
       <c r="P118" s="59"/>
       <c r="Q118" s="61"/>
     </row>
-    <row r="119" spans="1:17" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A119" s="70"/>
       <c r="B119" s="71" t="s">
         <v>373</v>
@@ -7016,7 +7015,7 @@
       <c r="P119" s="59"/>
       <c r="Q119" s="61"/>
     </row>
-    <row r="120" spans="1:17" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="94"/>
       <c r="B120" s="95"/>
       <c r="C120" s="95"/>
@@ -7035,7 +7034,7 @@
       <c r="P120" s="59"/>
       <c r="Q120" s="61"/>
     </row>
-    <row r="121" spans="1:17" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="96"/>
       <c r="B121" s="97"/>
       <c r="C121" s="97"/>
@@ -7054,7 +7053,7 @@
       <c r="P121" s="59"/>
       <c r="Q121" s="61"/>
     </row>
-    <row r="122" spans="1:17" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="96"/>
       <c r="B122" s="97"/>
       <c r="C122" s="97"/>
@@ -7073,7 +7072,7 @@
       <c r="P122" s="13"/>
       <c r="Q122" s="16"/>
     </row>
-    <row r="123" spans="1:17" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="96"/>
       <c r="B123" s="97"/>
       <c r="C123" s="97"/>
@@ -7092,7 +7091,7 @@
       <c r="P123" s="59"/>
       <c r="Q123" s="61"/>
     </row>
-    <row r="124" spans="1:17" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="96"/>
       <c r="B124" s="97"/>
       <c r="C124" s="97"/>
@@ -7111,7 +7110,7 @@
       <c r="P124" s="97"/>
       <c r="Q124" s="98"/>
     </row>
-    <row r="125" spans="1:17" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="96"/>
       <c r="B125" s="97"/>
       <c r="C125" s="97"/>
@@ -7130,7 +7129,7 @@
       <c r="P125" s="97"/>
       <c r="Q125" s="98"/>
     </row>
-    <row r="126" spans="1:17" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="96"/>
       <c r="B126" s="97"/>
       <c r="C126" s="97"/>
@@ -7149,7 +7148,7 @@
       <c r="P126" s="97"/>
       <c r="Q126" s="98"/>
     </row>
-    <row r="127" spans="1:17" ht="12" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:17" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A127" s="99"/>
       <c r="B127" s="100"/>
       <c r="C127" s="100"/>
@@ -7168,7 +7167,7 @@
       <c r="P127" s="97"/>
       <c r="Q127" s="98"/>
     </row>
-    <row r="128" spans="1:17" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I128" s="97"/>
       <c r="J128" s="97"/>
       <c r="K128" s="97"/>
@@ -7179,7 +7178,7 @@
       <c r="P128" s="97"/>
       <c r="Q128" s="98"/>
     </row>
-    <row r="129" spans="9:17" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="9:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I129" s="97"/>
       <c r="J129" s="97"/>
       <c r="K129" s="97"/>
@@ -7190,7 +7189,7 @@
       <c r="P129" s="97"/>
       <c r="Q129" s="98"/>
     </row>
-    <row r="130" spans="9:17" ht="12" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="9:17" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I130" s="100"/>
       <c r="J130" s="100"/>
       <c r="K130" s="100"/>
@@ -7201,30 +7200,23 @@
       <c r="P130" s="100"/>
       <c r="Q130" s="101"/>
     </row>
-    <row r="131" spans="9:17" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="132" spans="9:17" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="133" spans="9:17" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="134" spans="9:17" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="135" spans="9:17" ht="11.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="136" spans="9:17" ht="11.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="137" spans="9:17" ht="11.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="138" spans="9:17" ht="11.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="139" spans="9:17" ht="11.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="140" spans="9:17" ht="11.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="141" spans="9:17" ht="11.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="142" spans="9:17" ht="11.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="143" spans="9:17" ht="11.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="144" spans="9:17" ht="11.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="145" ht="11.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="146" ht="11.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="131" spans="9:17" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="132" spans="9:17" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="133" spans="9:17" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="134" spans="9:17" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="135" spans="9:17" ht="11.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="136" spans="9:17" ht="11.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="137" spans="9:17" ht="11.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="138" spans="9:17" ht="11.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="139" spans="9:17" ht="11.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="140" spans="9:17" ht="11.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="141" spans="9:17" ht="11.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="142" spans="9:17" ht="11.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="143" spans="9:17" ht="11.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="144" spans="9:17" ht="11.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="145" ht="11.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="146" ht="11.1" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <autoFilter ref="A1:Q146" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="15">
-      <filters>
-        <filter val="9/14"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
   <pageMargins left="0.51180555555555496" right="0.51180555555555496" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
